--- a/Outputs/TT/criticality_output.xlsx
+++ b/Outputs/TT/criticality_output.xlsx
@@ -1715,40 +1715,40 @@
         <v>4.639154961530001</v>
       </c>
       <c r="K21">
-        <v>1393056528.878148</v>
+        <v>139305652.8878148</v>
       </c>
       <c r="L21">
         <v>1393056.528878147</v>
       </c>
       <c r="M21">
-        <v>0.7314502311548832</v>
+        <v>0.7314502311548829</v>
       </c>
       <c r="N21">
-        <v>257693829.2205962</v>
+        <v>103077531.6882385</v>
       </c>
       <c r="O21">
         <v>515387.6584411924</v>
       </c>
       <c r="P21">
-        <v>0.9879805990791851</v>
+        <v>0.9879805990791849</v>
       </c>
       <c r="Q21">
-        <v>30554119.32544624</v>
+        <v>15277059.66272312</v>
       </c>
       <c r="R21">
         <v>305541.1932544624</v>
       </c>
       <c r="S21">
-        <v>0.8133830019349895</v>
+        <v>0.8133830019349894</v>
       </c>
       <c r="T21">
-        <v>1681304477.42419</v>
+        <v>257660244.2387764</v>
       </c>
       <c r="U21">
         <v>2213985.380573803</v>
       </c>
       <c r="V21">
-        <v>0.7839520666094445</v>
+        <v>0.8876350397553635</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -2028,7 +2028,7 @@
         <v>2.81890251748</v>
       </c>
       <c r="K29">
-        <v>1439861154.847246</v>
+        <v>143986115.4847246</v>
       </c>
       <c r="L29">
         <v>1439861.154847246</v>
@@ -2037,7 +2037,7 @@
         <v>0.7560258702438333</v>
       </c>
       <c r="N29">
-        <v>260828835.5669851</v>
+        <v>104331534.2267941</v>
       </c>
       <c r="O29">
         <v>521657.6711339703</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="Q29">
-        <v>30660729.91276157</v>
+        <v>15330364.95638078</v>
       </c>
       <c r="R29">
         <v>306607.2991276156</v>
@@ -2055,13 +2055,13 @@
         <v>0.8162210886304345</v>
       </c>
       <c r="T29">
-        <v>1731350720.326993</v>
+        <v>263648014.6678995</v>
       </c>
       <c r="U29">
         <v>2268126.125108832</v>
       </c>
       <c r="V29">
-        <v>0.807286062166084</v>
+        <v>0.9082628042698427</v>
       </c>
     </row>
     <row r="30" spans="1:22">
@@ -2096,7 +2096,7 @@
         <v>1.66635099276</v>
       </c>
       <c r="K30">
-        <v>1536362173.861937</v>
+        <v>153636217.3861937</v>
       </c>
       <c r="L30">
         <v>1536362.173861937</v>
@@ -2105,31 +2105,31 @@
         <v>0.8066955244909737</v>
       </c>
       <c r="N30">
-        <v>250924838.2939808</v>
+        <v>100369935.3175923</v>
       </c>
       <c r="O30">
         <v>501849.6765879616</v>
       </c>
       <c r="P30">
-        <v>0.9620287486562782</v>
+        <v>0.962028748656278</v>
       </c>
       <c r="Q30">
-        <v>31907381.84931954</v>
+        <v>15953690.92465977</v>
       </c>
       <c r="R30">
         <v>319073.8184931953</v>
       </c>
       <c r="S30">
-        <v>0.8494082829241056</v>
+        <v>0.8494082829241055</v>
       </c>
       <c r="T30">
-        <v>1819194394.005238</v>
+        <v>269959843.6284458</v>
       </c>
       <c r="U30">
         <v>2357285.668943094</v>
       </c>
       <c r="V30">
-        <v>0.8482423764298914</v>
+        <v>0.9300069447633664</v>
       </c>
     </row>
     <row r="31" spans="1:22">
@@ -2164,7 +2164,7 @@
         <v>4.36446486691</v>
       </c>
       <c r="K31">
-        <v>243376750.8360524</v>
+        <v>24337675.08360524</v>
       </c>
       <c r="L31">
         <v>243376.7508360524</v>
@@ -2173,16 +2173,16 @@
         <v>0.1277894880548141</v>
       </c>
       <c r="N31">
-        <v>56819086.68041904</v>
+        <v>22727634.67216761</v>
       </c>
       <c r="O31">
         <v>113638.1733608381</v>
       </c>
       <c r="P31">
-        <v>0.2178405104516405</v>
+        <v>0.2178405104516404</v>
       </c>
       <c r="Q31">
-        <v>6751149.168076521</v>
+        <v>3375574.58403826</v>
       </c>
       <c r="R31">
         <v>67511.4916807652</v>
@@ -2191,13 +2191,13 @@
         <v>0.1797227378197649</v>
       </c>
       <c r="T31">
-        <v>306946986.684548</v>
+        <v>50440884.33981111</v>
       </c>
       <c r="U31">
         <v>424526.4158776556</v>
       </c>
       <c r="V31">
-        <v>0.1431244078842602</v>
+        <v>0.1737679652852158</v>
       </c>
     </row>
     <row r="32" spans="1:22">
@@ -2232,40 +2232,40 @@
         <v>0.466011736493</v>
       </c>
       <c r="K32">
-        <v>1464619862.74312</v>
+        <v>146461986.274312</v>
       </c>
       <c r="L32">
         <v>1464619.86274312</v>
       </c>
       <c r="M32">
-        <v>0.7690258901555286</v>
+        <v>0.7690258901555287</v>
       </c>
       <c r="N32">
-        <v>196508964.4765115</v>
+        <v>78603585.79060461</v>
       </c>
       <c r="O32">
         <v>393017.928953023</v>
       </c>
       <c r="P32">
-        <v>0.7534019927257805</v>
+        <v>0.7534019927257803</v>
       </c>
       <c r="Q32">
-        <v>31038314.13735867</v>
+        <v>15519157.06867933</v>
       </c>
       <c r="R32">
         <v>310383.1413735866</v>
       </c>
       <c r="S32">
-        <v>0.8262727804110026</v>
+        <v>0.8262727804110025</v>
       </c>
       <c r="T32">
-        <v>1692167141.35699</v>
+        <v>240584729.133596</v>
       </c>
       <c r="U32">
         <v>2168020.93306973</v>
       </c>
       <c r="V32">
-        <v>0.7890100438529301</v>
+        <v>0.8288101885486554</v>
       </c>
     </row>
     <row r="33" spans="1:22">
@@ -2300,25 +2300,25 @@
         <v>2.37252186276</v>
       </c>
       <c r="K33">
-        <v>1464619862.74312</v>
+        <v>146461986.274312</v>
       </c>
       <c r="L33">
         <v>1464619.86274312</v>
       </c>
       <c r="M33">
-        <v>0.7690258901555286</v>
+        <v>0.7690258901555287</v>
       </c>
       <c r="N33">
-        <v>130772465.0360819</v>
+        <v>52308986.01443274</v>
       </c>
       <c r="O33">
         <v>261544.9300721638</v>
       </c>
       <c r="P33">
-        <v>0.5013727287928537</v>
+        <v>0.5013727287928536</v>
       </c>
       <c r="Q33">
-        <v>29168541.94775359</v>
+        <v>14584270.9738768</v>
       </c>
       <c r="R33">
         <v>291685.4194775359</v>
@@ -2327,13 +2327,13 @@
         <v>0.7764974653277451</v>
       </c>
       <c r="T33">
-        <v>1624560869.726956</v>
+        <v>213355243.2626216</v>
       </c>
       <c r="U33">
         <v>2017850.21229282</v>
       </c>
       <c r="V33">
-        <v>0.7574797310388217</v>
+        <v>0.7350050854563754</v>
       </c>
     </row>
     <row r="34" spans="1:22">
@@ -2491,25 +2491,25 @@
         <v>2.93688458877</v>
       </c>
       <c r="K37">
-        <v>1464619862.74312</v>
+        <v>146461986.274312</v>
       </c>
       <c r="L37">
         <v>1464619.86274312</v>
       </c>
       <c r="M37">
-        <v>0.7690258901555286</v>
+        <v>0.7690258901555287</v>
       </c>
       <c r="N37">
-        <v>130772465.0360819</v>
+        <v>52308986.01443274</v>
       </c>
       <c r="O37">
         <v>261544.9300721638</v>
       </c>
       <c r="P37">
-        <v>0.5013727287928537</v>
+        <v>0.5013727287928536</v>
       </c>
       <c r="Q37">
-        <v>29168541.94775359</v>
+        <v>14584270.9738768</v>
       </c>
       <c r="R37">
         <v>291685.4194775359</v>
@@ -2518,13 +2518,13 @@
         <v>0.7764974653277451</v>
       </c>
       <c r="T37">
-        <v>1624560869.726956</v>
+        <v>213355243.2626216</v>
       </c>
       <c r="U37">
         <v>2017850.21229282</v>
       </c>
       <c r="V37">
-        <v>0.7574797310388217</v>
+        <v>0.7350050854563754</v>
       </c>
     </row>
     <row r="38" spans="1:22">
@@ -2900,7 +2900,7 @@
         <v>0.480276524089</v>
       </c>
       <c r="K45">
-        <v>243376750.8360524</v>
+        <v>24337675.08360524</v>
       </c>
       <c r="L45">
         <v>243376.7508360524</v>
@@ -2909,16 +2909,16 @@
         <v>0.1277894880548141</v>
       </c>
       <c r="N45">
-        <v>56819086.68041904</v>
+        <v>22727634.67216761</v>
       </c>
       <c r="O45">
         <v>113638.1733608381</v>
       </c>
       <c r="P45">
-        <v>0.2178405104516405</v>
+        <v>0.2178405104516404</v>
       </c>
       <c r="Q45">
-        <v>6751149.168076521</v>
+        <v>3375574.58403826</v>
       </c>
       <c r="R45">
         <v>67511.4916807652</v>
@@ -2927,13 +2927,13 @@
         <v>0.1797227378197649</v>
       </c>
       <c r="T45">
-        <v>306946986.684548</v>
+        <v>50440884.33981111</v>
       </c>
       <c r="U45">
         <v>424526.4158776556</v>
       </c>
       <c r="V45">
-        <v>0.1431244078842602</v>
+        <v>0.1737679652852158</v>
       </c>
     </row>
     <row r="46" spans="1:22">
@@ -2968,7 +2968,7 @@
         <v>5.20572588583</v>
       </c>
       <c r="K46">
-        <v>432236709.6802592</v>
+        <v>43223670.96802592</v>
       </c>
       <c r="L46">
         <v>432236.7096802592</v>
@@ -2977,7 +2977,7 @@
         <v>0.2269539208605271</v>
       </c>
       <c r="N46">
-        <v>73507363.91361138</v>
+        <v>29402945.56544456</v>
       </c>
       <c r="O46">
         <v>147014.7278272228</v>
@@ -2986,7 +2986,7 @@
         <v>0.281822229332207</v>
       </c>
       <c r="Q46">
-        <v>8552331.518662049</v>
+        <v>4276165.759331024</v>
       </c>
       <c r="R46">
         <v>85523.31518662049</v>
@@ -2995,13 +2995,13 @@
         <v>0.2276721187770961</v>
       </c>
       <c r="T46">
-        <v>514296405.1125327</v>
+        <v>76902782.2928015</v>
       </c>
       <c r="U46">
         <v>664774.7526941025</v>
       </c>
       <c r="V46">
-        <v>0.2398026609935338</v>
+        <v>0.2649287414107634</v>
       </c>
     </row>
     <row r="47" spans="1:22">
@@ -3036,7 +3036,7 @@
         <v>2.02262738416</v>
       </c>
       <c r="K47">
-        <v>243376750.8360524</v>
+        <v>24337675.08360524</v>
       </c>
       <c r="L47">
         <v>243376.7508360524</v>
@@ -3045,7 +3045,7 @@
         <v>0.1277894880548141</v>
       </c>
       <c r="N47">
-        <v>29620000</v>
+        <v>11848000</v>
       </c>
       <c r="O47">
         <v>59240</v>
@@ -3054,22 +3054,22 @@
         <v>0.1135610636592866</v>
       </c>
       <c r="Q47">
-        <v>2962000</v>
+        <v>1481000</v>
       </c>
       <c r="R47">
         <v>29620</v>
       </c>
       <c r="S47">
-        <v>0.07885157566053498</v>
+        <v>0.07885157566053497</v>
       </c>
       <c r="T47">
-        <v>275958750.8360524</v>
+        <v>37666675.08360524</v>
       </c>
       <c r="U47">
         <v>332236.7508360523</v>
       </c>
       <c r="V47">
-        <v>0.1286693352315248</v>
+        <v>0.1297610375790238</v>
       </c>
     </row>
     <row r="48" spans="1:22">
@@ -3186,40 +3186,40 @@
         <v>1.03432944709</v>
       </c>
       <c r="K50">
-        <v>8134438.787895387</v>
+        <v>6832306.848827055</v>
       </c>
       <c r="L50">
         <v>0</v>
       </c>
       <c r="M50">
-        <v>0.00341691066134289</v>
+        <v>0.03587429741936033</v>
       </c>
       <c r="N50">
-        <v>1988098.180594851</v>
+        <v>1667771.962416572</v>
       </c>
       <c r="O50">
         <v>0</v>
       </c>
       <c r="P50">
-        <v>0.006097786469883693</v>
+        <v>0.01598531043156327</v>
       </c>
       <c r="Q50">
-        <v>1582824.202041109</v>
+        <v>1329954.856821535</v>
       </c>
       <c r="R50">
         <v>0</v>
       </c>
       <c r="S50">
-        <v>0.03370916470616352</v>
+        <v>0.07080961243602921</v>
       </c>
       <c r="T50">
-        <v>11705361.17053135</v>
+        <v>9830033.668065162</v>
       </c>
       <c r="U50">
         <v>0</v>
       </c>
       <c r="V50">
-        <v>0.005456133765850638</v>
+        <v>0.03386429424348286</v>
       </c>
     </row>
     <row r="51" spans="1:22">
@@ -3254,40 +3254,40 @@
         <v>3.57290652483</v>
       </c>
       <c r="K51">
-        <v>14268514.16017871</v>
+        <v>11895480.25039357</v>
       </c>
       <c r="L51">
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0.005993558919883488</v>
+        <v>0.06245943074439162</v>
       </c>
       <c r="N51">
-        <v>2614615.670270859</v>
+        <v>2170522.287117711</v>
       </c>
       <c r="O51">
         <v>0</v>
       </c>
       <c r="P51">
-        <v>0.008019406794765628</v>
+        <v>0.02080408673373352</v>
       </c>
       <c r="Q51">
-        <v>2553394.406009359</v>
+        <v>2129753.986444335</v>
       </c>
       <c r="R51">
         <v>0</v>
       </c>
       <c r="S51">
-        <v>0.05437924974925962</v>
+        <v>0.1133926114790287</v>
       </c>
       <c r="T51">
-        <v>19436524.23645893</v>
+        <v>16195756.52395562</v>
       </c>
       <c r="U51">
         <v>0</v>
       </c>
       <c r="V51">
-        <v>0.009059803848197188</v>
+        <v>0.05579409826487326</v>
       </c>
     </row>
     <row r="52" spans="1:22">
@@ -3422,7 +3422,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>6128974.995930463</v>
+        <v>3064487.497965232</v>
       </c>
       <c r="R54">
         <v>61289.74995930464</v>
@@ -3431,13 +3431,13 @@
         <v>0.1631598027053133</v>
       </c>
       <c r="T54">
-        <v>6128974.995930463</v>
+        <v>3064487.497965232</v>
       </c>
       <c r="U54">
         <v>61289.74995930464</v>
       </c>
       <c r="V54">
-        <v>0.002863996095935251</v>
+        <v>0.01055710589005495</v>
       </c>
     </row>
     <row r="55" spans="1:22">
@@ -3540,40 +3540,40 @@
         <v>4.755083917569999</v>
       </c>
       <c r="K56">
-        <v>992139.1617895748</v>
+        <v>836868.0857202816</v>
       </c>
       <c r="L56">
         <v>0</v>
       </c>
       <c r="M56">
-        <v>0.000416752890746345</v>
+        <v>0.004394131480358525</v>
       </c>
       <c r="N56">
-        <v>140038.0312695132</v>
+        <v>118480.688702985</v>
       </c>
       <c r="O56">
         <v>0</v>
       </c>
       <c r="P56">
-        <v>0.0004295170231929336</v>
+        <v>0.001135617237693771</v>
       </c>
       <c r="Q56">
-        <v>197786.5210540106</v>
+        <v>166964.6738406951</v>
       </c>
       <c r="R56">
         <v>0</v>
       </c>
       <c r="S56">
-        <v>0.004212229258480571</v>
+        <v>0.008889552742732017</v>
       </c>
       <c r="T56">
-        <v>1329963.714113099</v>
+        <v>1122313.448263962</v>
       </c>
       <c r="U56">
         <v>0</v>
       </c>
       <c r="V56">
-        <v>0.0006199261878562954</v>
+        <v>0.003866350221047558</v>
       </c>
     </row>
     <row r="57" spans="1:22">
@@ -3608,7 +3608,7 @@
         <v>0.614146066608</v>
       </c>
       <c r="K57">
-        <v>243376750.8360524</v>
+        <v>24337675.08360524</v>
       </c>
       <c r="L57">
         <v>243376.7508360524</v>
@@ -3617,7 +3617,7 @@
         <v>0.1277894880548141</v>
       </c>
       <c r="N57">
-        <v>29620000</v>
+        <v>11848000</v>
       </c>
       <c r="O57">
         <v>59240</v>
@@ -3626,22 +3626,22 @@
         <v>0.1135610636592866</v>
       </c>
       <c r="Q57">
-        <v>2962000</v>
+        <v>1481000</v>
       </c>
       <c r="R57">
         <v>29620</v>
       </c>
       <c r="S57">
-        <v>0.07885157566053498</v>
+        <v>0.07885157566053497</v>
       </c>
       <c r="T57">
-        <v>275958750.8360524</v>
+        <v>37666675.08360524</v>
       </c>
       <c r="U57">
         <v>332236.7508360523</v>
       </c>
       <c r="V57">
-        <v>0.1286693352315248</v>
+        <v>0.1297610375790238</v>
       </c>
     </row>
     <row r="58" spans="1:22">
@@ -3762,7 +3762,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>5945194.574011138</v>
+        <v>2972597.287005569</v>
       </c>
       <c r="R59">
         <v>59451.94574011136</v>
@@ -3771,13 +3771,13 @@
         <v>0.1582673733184474</v>
       </c>
       <c r="T59">
-        <v>5945194.574011138</v>
+        <v>2972597.287005569</v>
       </c>
       <c r="U59">
         <v>59451.94574011136</v>
       </c>
       <c r="V59">
-        <v>0.002778117721290915</v>
+        <v>0.010240545718736</v>
       </c>
     </row>
     <row r="60" spans="1:22">
@@ -3880,40 +3880,40 @@
         <v>1.31197147916</v>
       </c>
       <c r="K61">
-        <v>1339646.018879012</v>
+        <v>1122316.14246588</v>
       </c>
       <c r="L61">
         <v>0</v>
       </c>
       <c r="M61">
-        <v>0.0005627248398678493</v>
+        <v>0.005892929574771989</v>
       </c>
       <c r="N61">
-        <v>338474.6184167952</v>
+        <v>283564.107764841</v>
       </c>
       <c r="O61">
         <v>0</v>
       </c>
       <c r="P61">
-        <v>0.001038150916653138</v>
+        <v>0.002717913714835577</v>
       </c>
       <c r="Q61">
-        <v>219791.8159243919</v>
+        <v>184135.1368328236</v>
       </c>
       <c r="R61">
         <v>0</v>
       </c>
       <c r="S61">
-        <v>0.004680872654403394</v>
+        <v>0.009803744546749734</v>
       </c>
       <c r="T61">
-        <v>1897912.453220199</v>
+        <v>1590015.387063545</v>
       </c>
       <c r="U61">
         <v>0</v>
       </c>
       <c r="V61">
-        <v>0.0008846599493839526</v>
+        <v>0.005477575228873391</v>
       </c>
     </row>
     <row r="62" spans="1:22">
@@ -3948,40 +3948,40 @@
         <v>1.59673730947</v>
       </c>
       <c r="K62">
-        <v>460634.4603171686</v>
+        <v>401232.2882777631</v>
       </c>
       <c r="L62">
         <v>0</v>
       </c>
       <c r="M62">
-        <v>0.0001934917502583958</v>
+        <v>0.002106744729475681</v>
       </c>
       <c r="N62">
-        <v>94219.62539326708</v>
+        <v>81853.926628345</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>0.0002889853039092219</v>
+        <v>0.00078455595649933</v>
       </c>
       <c r="Q62">
-        <v>66208.48172092802</v>
+        <v>57670.4152919717</v>
       </c>
       <c r="R62">
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0.001410031898929616</v>
+        <v>0.00307049501334867</v>
       </c>
       <c r="T62">
-        <v>621062.5674313636</v>
+        <v>540756.6301980797</v>
       </c>
       <c r="U62">
         <v>0</v>
       </c>
       <c r="V62">
-        <v>0.0002894913190204734</v>
+        <v>0.001862897143336684</v>
       </c>
     </row>
     <row r="63" spans="1:22">
@@ -4077,16 +4077,16 @@
         <v>0.041708868189</v>
       </c>
       <c r="K65">
-        <v>893584725.3250645</v>
+        <v>89358472.53250644</v>
       </c>
       <c r="L65">
         <v>893584.7253250644</v>
       </c>
       <c r="M65">
-        <v>0.4691932741752101</v>
+        <v>0.4691932741752099</v>
       </c>
       <c r="N65">
-        <v>131349448.4606692</v>
+        <v>52539779.3842677</v>
       </c>
       <c r="O65">
         <v>262698.8969213385</v>
@@ -4095,22 +4095,22 @@
         <v>0.5035848439653695</v>
       </c>
       <c r="Q65">
-        <v>16867440.78014065</v>
+        <v>8433720.390070323</v>
       </c>
       <c r="R65">
         <v>168674.4078014065</v>
       </c>
       <c r="S65">
-        <v>0.4490291299374928</v>
+        <v>0.4490291299374927</v>
       </c>
       <c r="T65">
-        <v>1041801614.565874</v>
+        <v>150331972.3068444</v>
       </c>
       <c r="U65">
         <v>1324958.030047809</v>
       </c>
       <c r="V65">
-        <v>0.485761709593963</v>
+        <v>0.5178910181092118</v>
       </c>
     </row>
     <row r="66" spans="1:22">
@@ -4145,16 +4145,16 @@
         <v>0.992292562077</v>
       </c>
       <c r="K66">
-        <v>893584725.3250645</v>
+        <v>89358472.53250644</v>
       </c>
       <c r="L66">
         <v>893584.7253250644</v>
       </c>
       <c r="M66">
-        <v>0.4691932741752101</v>
+        <v>0.4691932741752099</v>
       </c>
       <c r="N66">
-        <v>131349448.4606692</v>
+        <v>52539779.3842677</v>
       </c>
       <c r="O66">
         <v>262698.8969213385</v>
@@ -4163,22 +4163,22 @@
         <v>0.5035848439653695</v>
       </c>
       <c r="Q66">
-        <v>16867440.78014065</v>
+        <v>8433720.390070323</v>
       </c>
       <c r="R66">
         <v>168674.4078014065</v>
       </c>
       <c r="S66">
-        <v>0.4490291299374928</v>
+        <v>0.4490291299374927</v>
       </c>
       <c r="T66">
-        <v>1041801614.565874</v>
+        <v>150331972.3068444</v>
       </c>
       <c r="U66">
         <v>1324958.030047809</v>
       </c>
       <c r="V66">
-        <v>0.485761709593963</v>
+        <v>0.5178910181092118</v>
       </c>
     </row>
     <row r="67" spans="1:22">
@@ -4254,16 +4254,16 @@
         <v>1.32320320306</v>
       </c>
       <c r="K68">
-        <v>893584725.3250645</v>
+        <v>89358472.53250644</v>
       </c>
       <c r="L68">
         <v>893584.7253250644</v>
       </c>
       <c r="M68">
-        <v>0.4691932741752101</v>
+        <v>0.4691932741752099</v>
       </c>
       <c r="N68">
-        <v>131349448.4606692</v>
+        <v>52539779.3842677</v>
       </c>
       <c r="O68">
         <v>262698.8969213385</v>
@@ -4272,7 +4272,7 @@
         <v>0.5035848439653695</v>
       </c>
       <c r="Q68">
-        <v>14150546.40376394</v>
+        <v>7075273.20188197</v>
       </c>
       <c r="R68">
         <v>141505.4640376394</v>
@@ -4281,13 +4281,13 @@
         <v>0.37670252545385</v>
       </c>
       <c r="T68">
-        <v>1039084720.189498</v>
+        <v>148973525.1186561</v>
       </c>
       <c r="U68">
         <v>1297789.086284042</v>
       </c>
       <c r="V68">
-        <v>0.484492137619501</v>
+        <v>0.513211191279677</v>
       </c>
     </row>
     <row r="69" spans="1:22">
@@ -4322,16 +4322,16 @@
         <v>0.264764074571</v>
       </c>
       <c r="K69">
-        <v>893584725.3250645</v>
+        <v>89358472.53250644</v>
       </c>
       <c r="L69">
         <v>893584.7253250644</v>
       </c>
       <c r="M69">
-        <v>0.4691932741752101</v>
+        <v>0.4691932741752099</v>
       </c>
       <c r="N69">
-        <v>131349448.4606692</v>
+        <v>52539779.3842677</v>
       </c>
       <c r="O69">
         <v>262698.8969213385</v>
@@ -4340,7 +4340,7 @@
         <v>0.5035848439653695</v>
       </c>
       <c r="Q69">
-        <v>20376487.45213407</v>
+        <v>10188243.72606703</v>
       </c>
       <c r="R69">
         <v>203764.8745213407</v>
@@ -4349,13 +4349,13 @@
         <v>0.5424436671262294</v>
       </c>
       <c r="T69">
-        <v>1045310661.237868</v>
+        <v>152086495.6428412</v>
       </c>
       <c r="U69">
         <v>1360048.496767743</v>
       </c>
       <c r="V69">
-        <v>0.4874014447822639</v>
+        <v>0.5239353203480001</v>
       </c>
     </row>
     <row r="70" spans="1:22">
@@ -4399,16 +4399,16 @@
         <v>0</v>
       </c>
       <c r="N70">
-        <v>106990379.7027364</v>
+        <v>42796151.88109457</v>
       </c>
       <c r="O70">
         <v>213980.7594054729</v>
       </c>
       <c r="P70">
-        <v>0.4101938325575186</v>
+        <v>0.4101938325575185</v>
       </c>
       <c r="Q70">
-        <v>4873751.756605867</v>
+        <v>2436875.878302934</v>
       </c>
       <c r="R70">
         <v>48737.51756605868</v>
@@ -4417,13 +4417,13 @@
         <v>0.129744431258161</v>
       </c>
       <c r="T70">
-        <v>111864131.4593423</v>
+        <v>45233027.75939751</v>
       </c>
       <c r="U70">
         <v>262718.2769715316</v>
       </c>
       <c r="V70">
-        <v>0.05217301819749169</v>
+        <v>0.155826990353469</v>
       </c>
     </row>
     <row r="71" spans="1:22">
@@ -4458,7 +4458,7 @@
         <v>1.59285619452</v>
       </c>
       <c r="K71">
-        <v>1193689038.905834</v>
+        <v>119368903.8905835</v>
       </c>
       <c r="L71">
         <v>1193689.038905835</v>
@@ -4467,16 +4467,16 @@
         <v>0.6267686237670949</v>
       </c>
       <c r="N71">
-        <v>156792989.4013411</v>
+        <v>62717195.76053642</v>
       </c>
       <c r="O71">
         <v>313585.9788026821</v>
       </c>
       <c r="P71">
-        <v>0.6011336478978915</v>
+        <v>0.6011336478978913</v>
       </c>
       <c r="Q71">
-        <v>24438409.52002227</v>
+        <v>12219204.76001114</v>
       </c>
       <c r="R71">
         <v>244384.0952002228</v>
@@ -4485,13 +4485,13 @@
         <v>0.6505763326438807</v>
       </c>
       <c r="T71">
-        <v>1374920437.827198</v>
+        <v>194305304.411131</v>
       </c>
       <c r="U71">
         <v>1751659.112908739</v>
       </c>
       <c r="V71">
-        <v>0.6410856562621151</v>
+        <v>0.6693783789392846</v>
       </c>
     </row>
     <row r="72" spans="1:22">
@@ -4526,7 +4526,7 @@
         <v>0.5445393436720001</v>
       </c>
       <c r="K72">
-        <v>1193689038.905834</v>
+        <v>119368903.8905835</v>
       </c>
       <c r="L72">
         <v>1193689.038905835</v>
@@ -4535,16 +4535,16 @@
         <v>0.6267686237670949</v>
       </c>
       <c r="N72">
-        <v>172121378.5567114</v>
+        <v>68848551.42268454</v>
       </c>
       <c r="O72">
         <v>344242.7571134227</v>
       </c>
       <c r="P72">
-        <v>0.6599016484605966</v>
+        <v>0.6599016484605964</v>
       </c>
       <c r="Q72">
-        <v>24438409.52002227</v>
+        <v>12219204.76001114</v>
       </c>
       <c r="R72">
         <v>244384.0952002228</v>
@@ -4553,13 +4553,13 @@
         <v>0.6505763326438807</v>
       </c>
       <c r="T72">
-        <v>1390248826.982568</v>
+        <v>200436660.0732791</v>
       </c>
       <c r="U72">
         <v>1782315.89121948</v>
       </c>
       <c r="V72">
-        <v>0.6482341378252635</v>
+        <v>0.6905007920729211</v>
       </c>
     </row>
     <row r="73" spans="1:22">
@@ -4594,40 +4594,40 @@
         <v>2.8477270167</v>
       </c>
       <c r="K73">
-        <v>5796275.510456677</v>
+        <v>4784560.972631229</v>
       </c>
       <c r="L73">
         <v>0</v>
       </c>
       <c r="M73">
-        <v>0.002434753780092595</v>
+        <v>0.0251222269653629</v>
       </c>
       <c r="N73">
-        <v>2466595.749068653</v>
+        <v>2040854.437604477</v>
       </c>
       <c r="O73">
         <v>0</v>
       </c>
       <c r="P73">
-        <v>0.007565408153456072</v>
+        <v>0.01956124246354993</v>
       </c>
       <c r="Q73">
-        <v>1152575.218165469</v>
+        <v>950725.6100364688</v>
       </c>
       <c r="R73">
         <v>0</v>
       </c>
       <c r="S73">
-        <v>0.02454621796613966</v>
+        <v>0.05061864441066773</v>
       </c>
       <c r="T73">
-        <v>9415446.477690797</v>
+        <v>7776141.020272176</v>
       </c>
       <c r="U73">
         <v>0</v>
       </c>
       <c r="V73">
-        <v>0.004388752700499225</v>
+        <v>0.02678866995591335</v>
       </c>
     </row>
     <row r="74" spans="1:22">
@@ -4662,40 +4662,40 @@
         <v>4.31109654994</v>
       </c>
       <c r="K74">
-        <v>26013559.55379479</v>
+        <v>22107396.13030627</v>
       </c>
       <c r="L74">
         <v>0</v>
       </c>
       <c r="M74">
-        <v>0.01092712248460314</v>
+        <v>0.1160789937416785</v>
       </c>
       <c r="N74">
-        <v>5913974.972302651</v>
+        <v>4997098.552672078</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0.01813902196648452</v>
+        <v>0.04789633920085439</v>
       </c>
       <c r="Q74">
-        <v>3755023.11962131</v>
+        <v>3205243.587549352</v>
       </c>
       <c r="R74">
         <v>0</v>
       </c>
       <c r="S74">
-        <v>0.07997015249800887</v>
+        <v>0.1706539549318652</v>
       </c>
       <c r="T74">
-        <v>35682557.64571875</v>
+        <v>30309738.2705277</v>
       </c>
       <c r="U74">
         <v>0</v>
       </c>
       <c r="V74">
-        <v>0.01663244771232294</v>
+        <v>0.1044165187928733</v>
       </c>
     </row>
     <row r="75" spans="1:22">
@@ -4809,40 +4809,40 @@
         <v>0.569247151121</v>
       </c>
       <c r="K77">
-        <v>7542310.636477991</v>
+        <v>6270862.029076773</v>
       </c>
       <c r="L77">
         <v>0</v>
       </c>
       <c r="M77">
-        <v>0.003168184345217665</v>
+        <v>0.03292632700556977</v>
       </c>
       <c r="N77">
-        <v>1674478.430928253</v>
+        <v>1391244.98365719</v>
       </c>
       <c r="O77">
         <v>0</v>
       </c>
       <c r="P77">
-        <v>0.00513586905309239</v>
+        <v>0.01333484640063786</v>
       </c>
       <c r="Q77">
-        <v>1573688.500688896</v>
+        <v>1308403.212251273</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0.03351460307310853</v>
+        <v>0.06966215724869568</v>
       </c>
       <c r="T77">
-        <v>10790477.56809514</v>
+        <v>8970510.224985236</v>
       </c>
       <c r="U77">
         <v>0</v>
       </c>
       <c r="V77">
-        <v>0.005029685812442578</v>
+        <v>0.03090325099902373</v>
       </c>
     </row>
     <row r="78" spans="1:22">
@@ -5159,13 +5159,13 @@
         <v>0</v>
       </c>
       <c r="N84">
-        <v>40785.43111210513</v>
+        <v>33512.49684777638</v>
       </c>
       <c r="O84">
         <v>0</v>
       </c>
       <c r="P84">
-        <v>0.0001250948531773996</v>
+        <v>0.0003212115789932457</v>
       </c>
       <c r="Q84">
         <v>0</v>
@@ -5177,13 +5177,13 @@
         <v>0</v>
       </c>
       <c r="T84">
-        <v>40785.43111210513</v>
+        <v>33512.49684777638</v>
       </c>
       <c r="U84">
         <v>0</v>
       </c>
       <c r="V84">
-        <v>1.901101252695738e-05</v>
+        <v>0.0001154499661352908</v>
       </c>
     </row>
     <row r="85" spans="1:22">
@@ -5218,40 +5218,40 @@
         <v>0.166441588352</v>
       </c>
       <c r="K85">
-        <v>1017340.231021608</v>
+        <v>874479.4610363417</v>
       </c>
       <c r="L85">
         <v>0</v>
       </c>
       <c r="M85">
-        <v>0.0004273387227110912</v>
+        <v>0.004591616999421706</v>
       </c>
       <c r="N85">
-        <v>196436.1334584356</v>
+        <v>168851.4411174872</v>
       </c>
       <c r="O85">
         <v>0</v>
       </c>
       <c r="P85">
-        <v>0.0006024982108482789</v>
+        <v>0.001618412327287749</v>
       </c>
       <c r="Q85">
-        <v>212266.0680539793</v>
+        <v>182458.4451965949</v>
       </c>
       <c r="R85">
         <v>0</v>
       </c>
       <c r="S85">
-        <v>0.004520597954172213</v>
+        <v>0.009714473934046508</v>
       </c>
       <c r="T85">
-        <v>1426042.432534023</v>
+        <v>1225789.347350424</v>
       </c>
       <c r="U85">
         <v>0</v>
       </c>
       <c r="V85">
-        <v>0.0006647106530358748</v>
+        <v>0.004222822885546844</v>
       </c>
     </row>
     <row r="86" spans="1:22">
@@ -5283,40 +5283,40 @@
         <v>0.0139909133953</v>
       </c>
       <c r="K86">
-        <v>460634.4603171686</v>
+        <v>401232.2882777631</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0.0001934917502583958</v>
+        <v>0.002106744729475681</v>
       </c>
       <c r="N86">
-        <v>157525.989018366</v>
+        <v>133871.3812336155</v>
       </c>
       <c r="O86">
         <v>0</v>
       </c>
       <c r="P86">
-        <v>0.0004831551348253004</v>
+        <v>0.001283134406349361</v>
       </c>
       <c r="Q86">
-        <v>66208.48172092802</v>
+        <v>57670.4152919717</v>
       </c>
       <c r="R86">
         <v>0</v>
       </c>
       <c r="S86">
-        <v>0.001410031898929616</v>
+        <v>0.00307049501334867</v>
       </c>
       <c r="T86">
-        <v>684368.9310564626</v>
+        <v>592774.0848033503</v>
       </c>
       <c r="U86">
         <v>0</v>
       </c>
       <c r="V86">
-        <v>0.0003189998479018972</v>
+        <v>0.002042096365641751</v>
       </c>
     </row>
     <row r="87" spans="1:22">
@@ -5351,40 +5351,40 @@
         <v>0.367224335329</v>
       </c>
       <c r="K87">
-        <v>460634.4603171686</v>
+        <v>401232.2882777631</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0.0001934917502583958</v>
+        <v>0.002106744729475681</v>
       </c>
       <c r="N87">
-        <v>162060.7835004157</v>
+        <v>138209.2718448379</v>
       </c>
       <c r="O87">
         <v>0</v>
       </c>
       <c r="P87">
-        <v>0.0004970640095007314</v>
+        <v>0.001324712349618103</v>
       </c>
       <c r="Q87">
-        <v>66208.48172092802</v>
+        <v>57670.4152919717</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0.001410031898929616</v>
+        <v>0.00307049501334867</v>
       </c>
       <c r="T87">
-        <v>688903.7255385123</v>
+        <v>597111.9754145727</v>
       </c>
       <c r="U87">
         <v>0</v>
       </c>
       <c r="V87">
-        <v>0.0003211136182447546</v>
+        <v>0.002057040323009029</v>
       </c>
     </row>
     <row r="88" spans="1:22">
@@ -5428,13 +5428,13 @@
         <v>0</v>
       </c>
       <c r="N88">
-        <v>49489205.00314321</v>
+        <v>19795682.00125728</v>
       </c>
       <c r="O88">
         <v>98978.4100062864</v>
       </c>
       <c r="P88">
-        <v>0.1897382430725669</v>
+        <v>0.1897382430725668</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -5446,13 +5446,13 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>49489205.00314321</v>
+        <v>19795682.00125728</v>
       </c>
       <c r="U88">
         <v>98978.4100062864</v>
       </c>
       <c r="V88">
-        <v>0.02307957254698892</v>
+        <v>0.06819577863897</v>
       </c>
     </row>
     <row r="89" spans="1:22">
@@ -5596,40 +5596,40 @@
         <v>0.554594844549</v>
       </c>
       <c r="K91">
-        <v>1017340.231021608</v>
+        <v>874479.4610363417</v>
       </c>
       <c r="L91">
         <v>0</v>
       </c>
       <c r="M91">
-        <v>0.0004273387227110912</v>
+        <v>0.004591616999421706</v>
       </c>
       <c r="N91">
-        <v>196436.1334584356</v>
+        <v>168851.4411174872</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0.0006024982108482789</v>
+        <v>0.001618412327287749</v>
       </c>
       <c r="Q91">
-        <v>212266.0680539793</v>
+        <v>182458.4451965949</v>
       </c>
       <c r="R91">
         <v>0</v>
       </c>
       <c r="S91">
-        <v>0.004520597954172213</v>
+        <v>0.009714473934046508</v>
       </c>
       <c r="T91">
-        <v>1426042.432534023</v>
+        <v>1225789.347350424</v>
       </c>
       <c r="U91">
         <v>0</v>
       </c>
       <c r="V91">
-        <v>0.0006647106530358748</v>
+        <v>0.004222822885546844</v>
       </c>
     </row>
     <row r="92" spans="1:22">
@@ -5664,7 +5664,7 @@
         <v>0.7656176237090001</v>
       </c>
       <c r="K92">
-        <v>1709461182.972665</v>
+        <v>170946118.2972665</v>
       </c>
       <c r="L92">
         <v>1709461.182972665</v>
@@ -5673,31 +5673,31 @@
         <v>0.89758437760068</v>
       </c>
       <c r="N92">
-        <v>165148377.7348104</v>
+        <v>66059351.09392417</v>
       </c>
       <c r="O92">
         <v>330296.7554696209</v>
       </c>
       <c r="P92">
-        <v>0.6331676379868576</v>
+        <v>0.6331676379868575</v>
       </c>
       <c r="Q92">
-        <v>32264867.75107925</v>
+        <v>16132433.87553963</v>
       </c>
       <c r="R92">
         <v>322648.6775107926</v>
       </c>
       <c r="S92">
-        <v>0.8589249360740653</v>
+        <v>0.8589249360740652</v>
       </c>
       <c r="T92">
-        <v>1906874428.458555</v>
+        <v>253137903.2667303</v>
       </c>
       <c r="U92">
         <v>2362406.615953078</v>
       </c>
       <c r="V92">
-        <v>0.8891126216743573</v>
+        <v>0.8720556541176265</v>
       </c>
     </row>
     <row r="93" spans="1:22">
@@ -5732,7 +5732,7 @@
         <v>1.74913063697</v>
       </c>
       <c r="K93">
-        <v>1709461182.972665</v>
+        <v>170946118.2972665</v>
       </c>
       <c r="L93">
         <v>1709461.182972665</v>
@@ -5741,31 +5741,31 @@
         <v>0.89758437760068</v>
       </c>
       <c r="N93">
-        <v>165148377.7348104</v>
+        <v>66059351.09392417</v>
       </c>
       <c r="O93">
         <v>330296.7554696209</v>
       </c>
       <c r="P93">
-        <v>0.6331676379868576</v>
+        <v>0.6331676379868575</v>
       </c>
       <c r="Q93">
-        <v>32264867.75107925</v>
+        <v>16132433.87553963</v>
       </c>
       <c r="R93">
         <v>322648.6775107926</v>
       </c>
       <c r="S93">
-        <v>0.8589249360740653</v>
+        <v>0.8589249360740652</v>
       </c>
       <c r="T93">
-        <v>1906874428.458555</v>
+        <v>253137903.2667303</v>
       </c>
       <c r="U93">
         <v>2362406.615953078</v>
       </c>
       <c r="V93">
-        <v>0.8891126216743573</v>
+        <v>0.8720556541176265</v>
       </c>
     </row>
     <row r="94" spans="1:22">
@@ -6114,40 +6114,40 @@
         <v>0.341342793196</v>
       </c>
       <c r="K101">
-        <v>5796275.510456677</v>
+        <v>4784560.972631229</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0.002434753780092595</v>
+        <v>0.0251222269653629</v>
       </c>
       <c r="N101">
-        <v>2466595.749068653</v>
+        <v>2040854.437604477</v>
       </c>
       <c r="O101">
         <v>0</v>
       </c>
       <c r="P101">
-        <v>0.007565408153456072</v>
+        <v>0.01956124246354993</v>
       </c>
       <c r="Q101">
-        <v>1540178.865980024</v>
+        <v>1272183.268050827</v>
       </c>
       <c r="R101">
         <v>0</v>
       </c>
       <c r="S101">
-        <v>0.03280095351291852</v>
+        <v>0.06773373073246215</v>
       </c>
       <c r="T101">
-        <v>9803050.125505352</v>
+        <v>8097598.678286534</v>
       </c>
       <c r="U101">
         <v>0</v>
       </c>
       <c r="V101">
-        <v>0.004569423533273867</v>
+        <v>0.02789608597150486</v>
       </c>
     </row>
     <row r="102" spans="1:22">
@@ -6291,40 +6291,40 @@
         <v>2.62012834853</v>
       </c>
       <c r="K104">
-        <v>13237334.66436926</v>
+        <v>10938362.2812933</v>
       </c>
       <c r="L104">
         <v>0</v>
       </c>
       <c r="M104">
-        <v>0.005560406946543588</v>
+        <v>0.05743390489365909</v>
       </c>
       <c r="N104">
-        <v>4448611.921366485</v>
+        <v>3703207.722007599</v>
       </c>
       <c r="O104">
         <v>0</v>
       </c>
       <c r="P104">
-        <v>0.01364454021871062</v>
+        <v>0.0354946157885269</v>
       </c>
       <c r="Q104">
-        <v>3024766.584825847</v>
+        <v>2501415.339919711</v>
       </c>
       <c r="R104">
         <v>0</v>
       </c>
       <c r="S104">
-        <v>0.06441799087612514</v>
+        <v>0.1331806488413923</v>
       </c>
       <c r="T104">
-        <v>20710713.17056159</v>
+        <v>17142985.34322061</v>
       </c>
       <c r="U104">
         <v>0</v>
       </c>
       <c r="V104">
-        <v>0.009653732148755142</v>
+        <v>0.05905728499796716</v>
       </c>
     </row>
     <row r="105" spans="1:22">
@@ -6400,7 +6400,7 @@
         <v>0.204383745654</v>
       </c>
       <c r="K106">
-        <v>513521749.6725895</v>
+        <v>51352174.96725896</v>
       </c>
       <c r="L106">
         <v>513521.7496725895</v>
@@ -6409,7 +6409,7 @@
         <v>0.2696341424160047</v>
       </c>
       <c r="N106">
-        <v>43880000</v>
+        <v>17552000</v>
       </c>
       <c r="O106">
         <v>87760.00000000001</v>
@@ -6418,7 +6418,7 @@
         <v>0.1682329329294226</v>
       </c>
       <c r="Q106">
-        <v>4388000.000000001</v>
+        <v>2194000</v>
       </c>
       <c r="R106">
         <v>43880.00000000001</v>
@@ -6427,13 +6427,13 @@
         <v>0.1168132052661808</v>
       </c>
       <c r="T106">
-        <v>561789749.6725895</v>
+        <v>71098174.96725896</v>
       </c>
       <c r="U106">
         <v>645161.7496725896</v>
       </c>
       <c r="V106">
-        <v>0.261938098280817</v>
+        <v>0.2449319705880304</v>
       </c>
     </row>
     <row r="107" spans="1:22">
@@ -6447,7 +6447,7 @@
         <v>1.08510641258</v>
       </c>
       <c r="K107">
-        <v>1904513074.906898</v>
+        <v>190451307.4906898</v>
       </c>
       <c r="L107">
         <v>1904513.074906898</v>
@@ -6456,7 +6456,7 @@
         <v>1</v>
       </c>
       <c r="N107">
-        <v>184048838.6414303</v>
+        <v>73619535.45657212</v>
       </c>
       <c r="O107">
         <v>368097.6772828606</v>
@@ -6465,22 +6465,22 @@
         <v>0.7056307184799876</v>
       </c>
       <c r="Q107">
-        <v>33970682.58614624</v>
+        <v>16985341.29307312</v>
       </c>
       <c r="R107">
         <v>339706.8258614625</v>
       </c>
       <c r="S107">
-        <v>0.9043355328094291</v>
+        <v>0.904335532809429</v>
       </c>
       <c r="T107">
-        <v>2122532596.134475</v>
+        <v>281056184.240335</v>
       </c>
       <c r="U107">
         <v>2612317.578051221</v>
       </c>
       <c r="V107">
-        <v>0.9896648968498466</v>
+        <v>0.9682336443043548</v>
       </c>
     </row>
     <row r="108" spans="1:22">
@@ -6583,40 +6583,40 @@
         <v>3.04497278485</v>
       </c>
       <c r="K109">
-        <v>6923737.390613168</v>
+        <v>5841617.065809663</v>
       </c>
       <c r="L109">
         <v>0</v>
       </c>
       <c r="M109">
-        <v>0.002908349638272401</v>
+        <v>0.03067249651775287</v>
       </c>
       <c r="N109">
-        <v>1125816.75670379</v>
+        <v>947821.9106911328</v>
       </c>
       <c r="O109">
         <v>0</v>
       </c>
       <c r="P109">
-        <v>0.003453043845421491</v>
+        <v>0.009084711709795948</v>
       </c>
       <c r="Q109">
-        <v>1106257.181588324</v>
+        <v>935158.290644153</v>
       </c>
       <c r="R109">
         <v>0</v>
       </c>
       <c r="S109">
-        <v>0.02355978983228141</v>
+        <v>0.04978980736617421</v>
       </c>
       <c r="T109">
-        <v>9155811.328905283</v>
+        <v>7724597.267144949</v>
       </c>
       <c r="U109">
         <v>0</v>
       </c>
       <c r="V109">
-        <v>0.004267730881398362</v>
+        <v>0.02661110262692399</v>
       </c>
     </row>
     <row r="110" spans="1:22">
@@ -6818,40 +6818,40 @@
         <v>0.121398353296</v>
       </c>
       <c r="K114">
-        <v>20772864.21501911</v>
+        <v>17473577.50250028</v>
       </c>
       <c r="L114">
         <v>0</v>
       </c>
       <c r="M114">
-        <v>0.008725742863607102</v>
+        <v>0.09174826748487655</v>
       </c>
       <c r="N114">
-        <v>4419796.189179999</v>
+        <v>3717814.282011908</v>
       </c>
       <c r="O114">
         <v>0</v>
       </c>
       <c r="P114">
-        <v>0.01355615817422126</v>
+        <v>0.03563461718036456</v>
       </c>
       <c r="Q114">
-        <v>4097199.413184954</v>
+        <v>3446454.506630979</v>
       </c>
       <c r="R114">
         <v>0</v>
       </c>
       <c r="S114">
-        <v>0.08725742863607101</v>
+        <v>0.1834965349697531</v>
       </c>
       <c r="T114">
-        <v>29289859.81738406</v>
+        <v>24637846.29114317</v>
       </c>
       <c r="U114">
         <v>0</v>
       </c>
       <c r="V114">
-        <v>0.01365266657033929</v>
+        <v>0.08487695001895128</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -7248,7 +7248,7 @@
         <v>1.71552041221</v>
       </c>
       <c r="K122">
-        <v>1904513074.906898</v>
+        <v>190451307.4906898</v>
       </c>
       <c r="L122">
         <v>1904513.074906898</v>
@@ -7257,16 +7257,16 @@
         <v>1</v>
       </c>
       <c r="N122">
-        <v>202609508.8185038</v>
+        <v>81043803.52740151</v>
       </c>
       <c r="O122">
         <v>405219.0176370076</v>
       </c>
       <c r="P122">
-        <v>0.7767910644468232</v>
+        <v>0.776791064446823</v>
       </c>
       <c r="Q122">
-        <v>37564246.18262224</v>
+        <v>18782123.09131112</v>
       </c>
       <c r="R122">
         <v>375642.4618262224</v>
@@ -7275,7 +7275,7 @@
         <v>1</v>
       </c>
       <c r="T122">
-        <v>2144686829.908024</v>
+        <v>290277234.1094024</v>
       </c>
       <c r="U122">
         <v>2685374.554370128</v>
@@ -7395,16 +7395,16 @@
         <v>2.07696992176</v>
       </c>
       <c r="K125">
-        <v>258061988.1150202</v>
+        <v>25806198.81150202</v>
       </c>
       <c r="L125">
         <v>258061.9881150202</v>
       </c>
       <c r="M125">
-        <v>0.1355002449261923</v>
+        <v>0.1355002449261922</v>
       </c>
       <c r="N125">
-        <v>23530000</v>
+        <v>9412000</v>
       </c>
       <c r="O125">
         <v>47060</v>
@@ -7413,22 +7413,22 @@
         <v>0.09021241822765071</v>
       </c>
       <c r="Q125">
-        <v>2352999.999999999</v>
+        <v>1176500</v>
       </c>
       <c r="R125">
         <v>23529.99999999999</v>
       </c>
       <c r="S125">
-        <v>0.06263935095517853</v>
+        <v>0.06263935095517852</v>
       </c>
       <c r="T125">
-        <v>283944988.1150202</v>
+        <v>36394698.81150202</v>
       </c>
       <c r="U125">
         <v>328651.9881150202</v>
       </c>
       <c r="V125">
-        <v>0.1323914834428356</v>
+        <v>0.1253791015446469</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -7531,40 +7531,40 @@
         <v>2.21979037881</v>
       </c>
       <c r="K127">
-        <v>13237334.66436926</v>
+        <v>10938362.2812933</v>
       </c>
       <c r="L127">
         <v>0</v>
       </c>
       <c r="M127">
-        <v>0.005560406946543588</v>
+        <v>0.05743390489365909</v>
       </c>
       <c r="N127">
-        <v>4448611.921366485</v>
+        <v>3703207.722007599</v>
       </c>
       <c r="O127">
         <v>0</v>
       </c>
       <c r="P127">
-        <v>0.01364454021871062</v>
+        <v>0.0354946157885269</v>
       </c>
       <c r="Q127">
-        <v>3024766.584825847</v>
+        <v>2501415.339919711</v>
       </c>
       <c r="R127">
         <v>0</v>
       </c>
       <c r="S127">
-        <v>0.06441799087612514</v>
+        <v>0.1331806488413923</v>
       </c>
       <c r="T127">
-        <v>20710713.17056159</v>
+        <v>17142985.34322061</v>
       </c>
       <c r="U127">
         <v>0</v>
       </c>
       <c r="V127">
-        <v>0.009653732148755142</v>
+        <v>0.05905728499796716</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -7578,40 +7578,40 @@
         <v>0.0168068016542</v>
       </c>
       <c r="K128">
-        <v>10489021.87814903</v>
+        <v>8818211.783383654</v>
       </c>
       <c r="L128">
         <v>0</v>
       </c>
       <c r="M128">
-        <v>0.004405964764998753</v>
+        <v>0.04630166051138678</v>
       </c>
       <c r="N128">
-        <v>1800765.641179391</v>
+        <v>1511331.197296441</v>
       </c>
       <c r="O128">
         <v>0</v>
       </c>
       <c r="P128">
-        <v>0.005523210306912327</v>
+        <v>0.01448585232161099</v>
       </c>
       <c r="Q128">
-        <v>1436970.004501487</v>
+        <v>1211293.535705346</v>
       </c>
       <c r="R128">
         <v>0</v>
       </c>
       <c r="S128">
-        <v>0.0306029301909165</v>
+        <v>0.06449183246305674</v>
       </c>
       <c r="T128">
-        <v>13726757.52382991</v>
+        <v>11540836.51638544</v>
       </c>
       <c r="U128">
         <v>0</v>
       </c>
       <c r="V128">
-        <v>0.006398352355838747</v>
+        <v>0.03975798016607745</v>
       </c>
     </row>
     <row r="129" spans="1:22">
@@ -7625,40 +7625,40 @@
         <v>0.112425776439</v>
       </c>
       <c r="K129">
-        <v>6021460.898032194</v>
+        <v>5026436.367424518</v>
       </c>
       <c r="L129">
         <v>0</v>
       </c>
       <c r="M129">
-        <v>0.002529343999731397</v>
+        <v>0.02639223869686605</v>
       </c>
       <c r="N129">
-        <v>1028942.570712075</v>
+        <v>858922.4733523434</v>
       </c>
       <c r="O129">
         <v>0</v>
       </c>
       <c r="P129">
-        <v>0.003155916617809156</v>
+        <v>0.008232625732170609</v>
       </c>
       <c r="Q129">
-        <v>508198.8430226806</v>
+        <v>424257.0506795769</v>
       </c>
       <c r="R129">
         <v>0</v>
       </c>
       <c r="S129">
-        <v>0.01082303295643464</v>
+        <v>0.02258834364022693</v>
       </c>
       <c r="T129">
-        <v>7558602.31176695</v>
+        <v>6309615.891456438</v>
       </c>
       <c r="U129">
         <v>0</v>
       </c>
       <c r="V129">
-        <v>0.003523235609311514</v>
+        <v>0.02173651650917416</v>
       </c>
     </row>
     <row r="130" spans="1:22">
@@ -7693,40 +7693,40 @@
         <v>1.68799322993</v>
       </c>
       <c r="K130">
-        <v>43634565.53058013</v>
+        <v>36993574.37131586</v>
       </c>
       <c r="L130">
         <v>0</v>
       </c>
       <c r="M130">
-        <v>0.01832891193260543</v>
+        <v>0.194241640336989</v>
       </c>
       <c r="N130">
-        <v>8893825.30227994</v>
+        <v>7519443.535865897</v>
       </c>
       <c r="O130">
         <v>0</v>
       </c>
       <c r="P130">
-        <v>0.02727865661922448</v>
+        <v>0.07207258660186347</v>
       </c>
       <c r="Q130">
-        <v>5317921.830959298</v>
+        <v>4525689.868830297</v>
       </c>
       <c r="R130">
         <v>0</v>
       </c>
       <c r="S130">
-        <v>0.1132549670791891</v>
+        <v>0.2409573106739965</v>
       </c>
       <c r="T130">
-        <v>57846312.66381937</v>
+        <v>49038707.77601205</v>
       </c>
       <c r="U130">
         <v>0</v>
       </c>
       <c r="V130">
-        <v>0.02696347555251824</v>
+        <v>0.1689374915207091</v>
       </c>
     </row>
     <row r="131" spans="1:22">
@@ -7941,7 +7941,7 @@
         <v>0.0140104774262</v>
       </c>
       <c r="K134">
-        <v>365702567.3284032</v>
+        <v>36570256.73284032</v>
       </c>
       <c r="L134">
         <v>365702.5673284032</v>
@@ -7950,7 +7950,7 @@
         <v>0.1920189323700393</v>
       </c>
       <c r="N134">
-        <v>30479999.99999999</v>
+        <v>12191999.99999999</v>
       </c>
       <c r="O134">
         <v>60959.99999999998</v>
@@ -7959,7 +7959,7 @@
         <v>0.1168582451159708</v>
       </c>
       <c r="Q134">
-        <v>3048000</v>
+        <v>1524000</v>
       </c>
       <c r="R134">
         <v>30480</v>
@@ -7968,13 +7968,13 @@
         <v>0.08114098670267073</v>
       </c>
       <c r="T134">
-        <v>399230567.3284032</v>
+        <v>50286256.73284031</v>
       </c>
       <c r="U134">
         <v>457142.5673284032</v>
       </c>
       <c r="V134">
-        <v>0.1861436742332191</v>
+        <v>0.1732352758807394</v>
       </c>
     </row>
     <row r="135" spans="1:22">
@@ -8074,7 +8074,7 @@
         <v>0.273551884295</v>
       </c>
       <c r="K136">
-        <v>365702567.3284032</v>
+        <v>36570256.73284032</v>
       </c>
       <c r="L136">
         <v>365702.5673284032</v>
@@ -8083,7 +8083,7 @@
         <v>0.1920189323700393</v>
       </c>
       <c r="N136">
-        <v>30479999.99999999</v>
+        <v>12191999.99999999</v>
       </c>
       <c r="O136">
         <v>60959.99999999998</v>
@@ -8092,7 +8092,7 @@
         <v>0.1168582451159708</v>
       </c>
       <c r="Q136">
-        <v>3048000</v>
+        <v>1524000</v>
       </c>
       <c r="R136">
         <v>30480</v>
@@ -8101,13 +8101,13 @@
         <v>0.08114098670267073</v>
       </c>
       <c r="T136">
-        <v>399230567.3284032</v>
+        <v>50286256.73284031</v>
       </c>
       <c r="U136">
         <v>457142.5673284032</v>
       </c>
       <c r="V136">
-        <v>0.1861436742332191</v>
+        <v>0.1732352758807394</v>
       </c>
     </row>
     <row r="137" spans="1:22">
@@ -8121,40 +8121,40 @@
         <v>0.371361152387</v>
       </c>
       <c r="K137">
-        <v>926537.8944484671</v>
+        <v>800587.4353137739</v>
       </c>
       <c r="L137">
         <v>0</v>
       </c>
       <c r="M137">
-        <v>0.0003891967586491937</v>
+        <v>0.004203633179850501</v>
       </c>
       <c r="N137">
-        <v>254166.1872564176</v>
+        <v>219561.1513944342</v>
       </c>
       <c r="O137">
         <v>0</v>
       </c>
       <c r="P137">
-        <v>0.0007795646879423147</v>
+        <v>0.002104456270308035</v>
       </c>
       <c r="Q137">
-        <v>169490.8082289239</v>
+        <v>146609.2364573682</v>
       </c>
       <c r="R137">
         <v>0</v>
       </c>
       <c r="S137">
-        <v>0.003609619794416805</v>
+        <v>0.007805786158711301</v>
       </c>
       <c r="T137">
-        <v>1350194.889933809</v>
+        <v>1166757.823165576</v>
       </c>
       <c r="U137">
         <v>0</v>
       </c>
       <c r="V137">
-        <v>0.000629356396793046</v>
+        <v>0.004019460316084718</v>
       </c>
     </row>
     <row r="138" spans="1:22">
@@ -8189,40 +8189,40 @@
         <v>0.6881460772840001</v>
       </c>
       <c r="K138">
-        <v>323573.0925692777</v>
+        <v>274259.6039289293</v>
       </c>
       <c r="L138">
         <v>0</v>
       </c>
       <c r="M138">
-        <v>0.0001359184546780161</v>
+        <v>0.001440051042665257</v>
       </c>
       <c r="N138">
-        <v>152818.3441838943</v>
+        <v>129528.3801757286</v>
       </c>
       <c r="O138">
         <v>0</v>
       </c>
       <c r="P138">
-        <v>0.0004687161029621607</v>
+        <v>0.001241507480319058</v>
       </c>
       <c r="Q138">
-        <v>60213.14019327678</v>
+        <v>51036.4809681741</v>
       </c>
       <c r="R138">
         <v>0</v>
       </c>
       <c r="S138">
-        <v>0.001282350028280504</v>
+        <v>0.00271729030419273</v>
       </c>
       <c r="T138">
-        <v>536604.5769464489</v>
+        <v>454824.4650728321</v>
       </c>
       <c r="U138">
         <v>0</v>
       </c>
       <c r="V138">
-        <v>0.0002501235381406531</v>
+        <v>0.001566862335822773</v>
       </c>
     </row>
     <row r="139" spans="1:22">
@@ -8372,40 +8372,40 @@
         <v>0.3459351686029999</v>
       </c>
       <c r="K141">
-        <v>232005.6039669201</v>
+        <v>147958.281539583</v>
       </c>
       <c r="L141">
         <v>0</v>
       </c>
       <c r="M141">
-        <v>9.745508477677914e-05</v>
+        <v>0.0007768824666473654</v>
       </c>
       <c r="N141">
-        <v>54666.85680326729</v>
+        <v>35029.27245116794</v>
       </c>
       <c r="O141">
         <v>0</v>
       </c>
       <c r="P141">
-        <v>0.0001676712060901808</v>
+        <v>0.0003357496150207273</v>
       </c>
       <c r="Q141">
-        <v>38369.87117270285</v>
+        <v>23586.41615976976</v>
       </c>
       <c r="R141">
         <v>0</v>
       </c>
       <c r="S141">
-        <v>0.0008171572720754516</v>
+        <v>0.001255790734897333</v>
       </c>
       <c r="T141">
-        <v>325042.3319428902</v>
+        <v>206573.9701505207</v>
       </c>
       <c r="U141">
         <v>0</v>
       </c>
       <c r="V141">
-        <v>0.000151509587513559</v>
+        <v>0.0007116437180625234</v>
       </c>
     </row>
     <row r="142" spans="1:22">
@@ -8487,40 +8487,40 @@
         <v>0.369400391189</v>
       </c>
       <c r="K143">
-        <v>177071.4322702225</v>
+        <v>153605.4658021284</v>
       </c>
       <c r="L143">
         <v>0</v>
       </c>
       <c r="M143">
-        <v>7.437971819810316e-05</v>
+        <v>0.0008065340575812923</v>
       </c>
       <c r="N143">
-        <v>184558.1507054597</v>
+        <v>156239.9385586113</v>
       </c>
       <c r="O143">
         <v>0</v>
       </c>
       <c r="P143">
-        <v>0.0005660667090102073</v>
+        <v>0.0014975332215376</v>
       </c>
       <c r="Q143">
-        <v>20505.11755652919</v>
+        <v>18195.05806404349</v>
       </c>
       <c r="R143">
         <v>0</v>
       </c>
       <c r="S143">
-        <v>0.000436694349341479</v>
+        <v>0.0009687434149795764</v>
       </c>
       <c r="T143">
-        <v>382134.7005322114</v>
+        <v>328040.4624247833</v>
       </c>
       <c r="U143">
         <v>0</v>
       </c>
       <c r="V143">
-        <v>0.0001781216326691418</v>
+        <v>0.001130093661775585</v>
       </c>
     </row>
     <row r="144" spans="1:22">
@@ -8555,40 +8555,40 @@
         <v>0.721570157797</v>
       </c>
       <c r="K144">
-        <v>1855309.26229984</v>
+        <v>1602140.449879454</v>
       </c>
       <c r="L144">
         <v>0</v>
       </c>
       <c r="M144">
-        <v>0.0007793316986875658</v>
+        <v>0.008412336313090287</v>
       </c>
       <c r="N144">
-        <v>1048765.84993695</v>
+        <v>900650.4418098327</v>
       </c>
       <c r="O144">
         <v>0</v>
       </c>
       <c r="P144">
-        <v>0.003216717500293743</v>
+        <v>0.00863258120840066</v>
       </c>
       <c r="Q144">
-        <v>312795.2754549928</v>
+        <v>270046.9507007754</v>
       </c>
       <c r="R144">
         <v>0</v>
       </c>
       <c r="S144">
-        <v>0.006661553093530655</v>
+        <v>0.01437787141463805</v>
       </c>
       <c r="T144">
-        <v>3216870.387691783</v>
+        <v>2772837.842390062</v>
       </c>
       <c r="U144">
         <v>0</v>
       </c>
       <c r="V144">
-        <v>0.001499456094258511</v>
+        <v>0.009552377922083305</v>
       </c>
     </row>
     <row r="145" spans="1:22">
@@ -8664,40 +8664,40 @@
         <v>0.0183272473952</v>
       </c>
       <c r="K146">
-        <v>283564.503400264</v>
+        <v>197880.6182285011</v>
       </c>
       <c r="L146">
         <v>0</v>
       </c>
       <c r="M146">
-        <v>0.0001191126517896449</v>
+        <v>0.001039008977337551</v>
       </c>
       <c r="N146">
-        <v>145008.4152904248</v>
+        <v>111630.123101595</v>
       </c>
       <c r="O146">
         <v>0</v>
       </c>
       <c r="P146">
-        <v>0.0004447619143802351</v>
+        <v>0.001069955732261498</v>
       </c>
       <c r="Q146">
-        <v>52092.36023876714</v>
+        <v>36178.49474751047</v>
       </c>
       <c r="R146">
         <v>0</v>
       </c>
       <c r="S146">
-        <v>0.001109403020851584</v>
+        <v>0.001926219659599993</v>
       </c>
       <c r="T146">
-        <v>480665.278929456</v>
+        <v>345689.2360776066</v>
       </c>
       <c r="U146">
         <v>0</v>
       </c>
       <c r="V146">
-        <v>0.0002240489652759661</v>
+        <v>0.001190893378663378</v>
       </c>
     </row>
     <row r="147" spans="1:22">
@@ -8844,40 +8844,40 @@
         <v>0.621545169511</v>
       </c>
       <c r="K149">
-        <v>214396.6616161405</v>
+        <v>132001.1350392516</v>
       </c>
       <c r="L149">
         <v>0</v>
       </c>
       <c r="M149">
-        <v>9.005836271368051e-05</v>
+        <v>0.0006930965020846835</v>
       </c>
       <c r="N149">
-        <v>57941.03954055456</v>
+        <v>36672.90104172711</v>
       </c>
       <c r="O149">
         <v>0</v>
       </c>
       <c r="P149">
-        <v>0.0001777136010736032</v>
+        <v>0.0003515035153418543</v>
       </c>
       <c r="Q149">
-        <v>39834.04593166051</v>
+        <v>24502.9618626759</v>
       </c>
       <c r="R149">
         <v>0</v>
       </c>
       <c r="S149">
-        <v>0.000848339577757071</v>
+        <v>0.001304589568684667</v>
       </c>
       <c r="T149">
-        <v>312171.7470883556</v>
+        <v>193176.9979436546</v>
       </c>
       <c r="U149">
         <v>0</v>
       </c>
       <c r="V149">
-        <v>0.0001455103166164027</v>
+        <v>0.0006654913828717557</v>
       </c>
     </row>
     <row r="150" spans="1:22">
@@ -8921,7 +8921,7 @@
         <v>0</v>
       </c>
       <c r="N150">
-        <v>59452086.73786761</v>
+        <v>23780834.69514704</v>
       </c>
       <c r="O150">
         <v>118904.1734757352</v>
@@ -8939,13 +8939,13 @@
         <v>0</v>
       </c>
       <c r="T150">
-        <v>59452086.73786761</v>
+        <v>23780834.69514704</v>
       </c>
       <c r="U150">
         <v>118904.1734757352</v>
       </c>
       <c r="V150">
-        <v>0.02772581917307714</v>
+        <v>0.08192456004381074</v>
       </c>
     </row>
     <row r="151" spans="1:22">
@@ -9369,40 +9369,40 @@
         <v>5.569491520030001</v>
       </c>
       <c r="K158">
-        <v>13103819.38830289</v>
+        <v>10848902.30962933</v>
       </c>
       <c r="L158">
         <v>0</v>
       </c>
       <c r="M158">
-        <v>0.005504323204058222</v>
+        <v>0.0569641786794227</v>
       </c>
       <c r="N158">
-        <v>3113304.549511836</v>
+        <v>2595811.024893254</v>
       </c>
       <c r="O158">
         <v>0</v>
       </c>
       <c r="P158">
-        <v>0.009548958167126543</v>
+        <v>0.02488040690794909</v>
       </c>
       <c r="Q158">
-        <v>2937708.011665754</v>
+        <v>2433552.593147936</v>
       </c>
       <c r="R158">
         <v>0</v>
       </c>
       <c r="S158">
-        <v>0.0625639177718898</v>
+        <v>0.1295674925202536</v>
       </c>
       <c r="T158">
-        <v>19154831.94948048</v>
+        <v>15878265.92767052</v>
       </c>
       <c r="U158">
         <v>0</v>
       </c>
       <c r="V158">
-        <v>0.008928500697771373</v>
+        <v>0.05470034870762951</v>
       </c>
     </row>
     <row r="159" spans="1:22">
@@ -9484,40 +9484,40 @@
         <v>0.634695885625</v>
       </c>
       <c r="K160">
-        <v>1855309.26229984</v>
+        <v>1602140.449879454</v>
       </c>
       <c r="L160">
         <v>0</v>
       </c>
       <c r="M160">
-        <v>0.0007793316986875658</v>
+        <v>0.008412336313090287</v>
       </c>
       <c r="N160">
-        <v>942059.8584112066</v>
+        <v>810627.8845396291</v>
       </c>
       <c r="O160">
         <v>0</v>
       </c>
       <c r="P160">
-        <v>0.002889434694176734</v>
+        <v>0.007769730317369822</v>
       </c>
       <c r="Q160">
-        <v>312795.2754549928</v>
+        <v>270046.9507007754</v>
       </c>
       <c r="R160">
         <v>0</v>
       </c>
       <c r="S160">
-        <v>0.006661553093530655</v>
+        <v>0.01437787141463805</v>
       </c>
       <c r="T160">
-        <v>3110164.396166039</v>
+        <v>2682815.285119859</v>
       </c>
       <c r="U160">
         <v>0</v>
       </c>
       <c r="V160">
-        <v>0.001449718016560585</v>
+        <v>0.009242251785094293</v>
       </c>
     </row>
     <row r="161" spans="1:22">
@@ -9552,40 +9552,40 @@
         <v>2.42756777369</v>
       </c>
       <c r="K161">
-        <v>7600043.154667604</v>
+        <v>6352694.348902466</v>
       </c>
       <c r="L161">
         <v>0</v>
       </c>
       <c r="M161">
-        <v>0.003192435170880255</v>
+        <v>0.03335600281564366</v>
       </c>
       <c r="N161">
-        <v>2213423.480773849</v>
+        <v>1854867.168763689</v>
       </c>
       <c r="O161">
         <v>0</v>
       </c>
       <c r="P161">
-        <v>0.006788891959625086</v>
+        <v>0.01777858614377903</v>
       </c>
       <c r="Q161">
-        <v>1082616.238054258</v>
+        <v>911010.9288161105</v>
       </c>
       <c r="R161">
         <v>0</v>
       </c>
       <c r="S161">
-        <v>0.02305631227718004</v>
+        <v>0.04850415069623078</v>
       </c>
       <c r="T161">
-        <v>10896082.87349571</v>
+        <v>9118572.446482265</v>
       </c>
       <c r="U161">
         <v>0</v>
       </c>
       <c r="V161">
-        <v>0.005078910835426031</v>
+        <v>0.03141332276524852</v>
       </c>
     </row>
     <row r="162" spans="1:22">
@@ -9620,40 +9620,40 @@
         <v>2.17312416967</v>
       </c>
       <c r="K162">
-        <v>31701245.95806178</v>
+        <v>26788203.85944992</v>
       </c>
       <c r="L162">
         <v>0</v>
       </c>
       <c r="M162">
-        <v>0.013316262881361</v>
+        <v>0.1406564450115915</v>
       </c>
       <c r="N162">
-        <v>6386175.672509898</v>
+        <v>5370341.922861201</v>
       </c>
       <c r="O162">
         <v>0</v>
       </c>
       <c r="P162">
-        <v>0.01958733023863023</v>
+        <v>0.05147381338404595</v>
       </c>
       <c r="Q162">
-        <v>4841718.401699042</v>
+        <v>4107381.017149957</v>
       </c>
       <c r="R162">
         <v>0</v>
       </c>
       <c r="S162">
-        <v>0.1031133355512698</v>
+        <v>0.2186856617423666</v>
       </c>
       <c r="T162">
-        <v>42929140.03227072</v>
+        <v>36265926.79946108</v>
       </c>
       <c r="U162">
         <v>0</v>
       </c>
       <c r="V162">
-        <v>0.02001024377262938</v>
+        <v>0.1249354842129743</v>
       </c>
     </row>
     <row r="163" spans="1:22">
@@ -9667,40 +9667,40 @@
         <v>0.113264525363</v>
       </c>
       <c r="K163">
-        <v>13705121.33770341</v>
+        <v>11659102.76146362</v>
       </c>
       <c r="L163">
         <v>0</v>
       </c>
       <c r="M163">
-        <v>0.005756903018740738</v>
+        <v>0.06121828678983246</v>
       </c>
       <c r="N163">
-        <v>2613205.739525429</v>
+        <v>2223213.321966363</v>
       </c>
       <c r="O163">
         <v>0</v>
       </c>
       <c r="P163">
-        <v>0.008015082331966522</v>
+        <v>0.02130912133558375</v>
       </c>
       <c r="Q163">
-        <v>2601480.315264926</v>
+        <v>2213285.933291232</v>
       </c>
       <c r="R163">
         <v>0</v>
       </c>
       <c r="S163">
-        <v>0.05540332799689526</v>
+        <v>0.1178400291879213</v>
       </c>
       <c r="T163">
-        <v>18919807.39249376</v>
+        <v>16095602.01672121</v>
       </c>
       <c r="U163">
         <v>0</v>
       </c>
       <c r="V163">
-        <v>0.00881895043251278</v>
+        <v>0.05544906773727543</v>
       </c>
     </row>
     <row r="164" spans="1:22">
@@ -9779,40 +9779,40 @@
         <v>0.12166109435</v>
       </c>
       <c r="K165">
-        <v>247200.6574166787</v>
+        <v>149616.1931288416</v>
       </c>
       <c r="L165">
         <v>0</v>
       </c>
       <c r="M165">
-        <v>0.0001038378410413436</v>
+        <v>0.000785587639697121</v>
       </c>
       <c r="N165">
-        <v>54670.74902960461</v>
+        <v>33089.02747586271</v>
       </c>
       <c r="O165">
         <v>0</v>
       </c>
       <c r="P165">
-        <v>0.0001676831441148362</v>
+        <v>0.0003171526971311891</v>
       </c>
       <c r="Q165">
-        <v>116947.6838044838</v>
+        <v>88361.2413318873</v>
       </c>
       <c r="R165">
         <v>0</v>
       </c>
       <c r="S165">
-        <v>0.002490616917713323</v>
+        <v>0.004704539572140515</v>
       </c>
       <c r="T165">
-        <v>418819.0902507672</v>
+        <v>271066.4619365917</v>
       </c>
       <c r="U165">
         <v>0</v>
       </c>
       <c r="V165">
-        <v>0.0001952210569848078</v>
+        <v>0.0009338192255009209</v>
       </c>
     </row>
     <row r="166" spans="1:22">
@@ -9847,40 +9847,40 @@
         <v>0.446198543918</v>
       </c>
       <c r="K166">
-        <v>247200.6574166787</v>
+        <v>149616.1931288416</v>
       </c>
       <c r="L166">
         <v>0</v>
       </c>
       <c r="M166">
-        <v>0.0001038378410413436</v>
+        <v>0.000785587639697121</v>
       </c>
       <c r="N166">
-        <v>54670.74902960461</v>
+        <v>33089.02747586271</v>
       </c>
       <c r="O166">
         <v>0</v>
       </c>
       <c r="P166">
-        <v>0.0001676831441148362</v>
+        <v>0.0003171526971311891</v>
       </c>
       <c r="Q166">
-        <v>71949.58184398734</v>
+        <v>49059.80702040336</v>
       </c>
       <c r="R166">
         <v>0</v>
       </c>
       <c r="S166">
-        <v>0.001532299229308581</v>
+        <v>0.002612047998082769</v>
       </c>
       <c r="T166">
-        <v>373820.9882902707</v>
+        <v>231765.0276251077</v>
       </c>
       <c r="U166">
         <v>0</v>
       </c>
       <c r="V166">
-        <v>0.0001742464232311779</v>
+        <v>0.0007984264709431464</v>
       </c>
     </row>
     <row r="167" spans="1:22">
@@ -9933,22 +9933,22 @@
         <v>0</v>
       </c>
       <c r="Q167">
-        <v>4513.241594770094</v>
+        <v>3222.036867396955</v>
       </c>
       <c r="R167">
         <v>0</v>
       </c>
       <c r="S167">
-        <v>9.611781528272455e-05</v>
+        <v>0.0001715480647066739</v>
       </c>
       <c r="T167">
-        <v>4513.241594770094</v>
+        <v>3222.036867396955</v>
       </c>
       <c r="U167">
         <v>0</v>
       </c>
       <c r="V167">
-        <v>2.103724054295787e-06</v>
+        <v>1.10998607151624e-05</v>
       </c>
     </row>
     <row r="168" spans="1:22">
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="N168">
-        <v>71726368.57926747</v>
+        <v>28690547.43170699</v>
       </c>
       <c r="O168">
         <v>143452.737158535</v>
@@ -9989,13 +9989,13 @@
         <v>0</v>
       </c>
       <c r="T168">
-        <v>71726368.57926747</v>
+        <v>28690547.43170699</v>
       </c>
       <c r="U168">
         <v>143452.737158535</v>
       </c>
       <c r="V168">
-        <v>0.03345000040013029</v>
+        <v>0.09883843464242816</v>
       </c>
     </row>
     <row r="169" spans="1:22">
@@ -10030,40 +10030,40 @@
         <v>2.13840697052</v>
       </c>
       <c r="K169">
-        <v>347064.0789145166</v>
+        <v>275238.7844108393</v>
       </c>
       <c r="L169">
         <v>0</v>
       </c>
       <c r="M169">
-        <v>0.0001457859579909612</v>
+        <v>0.001445192411841511</v>
       </c>
       <c r="N169">
-        <v>78172.3812185571</v>
+        <v>61898.44152953263</v>
       </c>
       <c r="O169">
         <v>0</v>
       </c>
       <c r="P169">
-        <v>0.0002397660704917916</v>
+        <v>0.000593286027932637</v>
       </c>
       <c r="Q169">
-        <v>52916.75374514071</v>
+        <v>41640.50920788846</v>
       </c>
       <c r="R169">
         <v>0</v>
       </c>
       <c r="S169">
-        <v>0.001126960003145135</v>
+        <v>0.002217028873969629</v>
       </c>
       <c r="T169">
-        <v>478153.2138782145</v>
+        <v>378777.7351482604</v>
       </c>
       <c r="U169">
         <v>0</v>
       </c>
       <c r="V169">
-        <v>0.0002228780349006952</v>
+        <v>0.001304882679864254</v>
       </c>
     </row>
     <row r="170" spans="1:22">
@@ -10098,40 +10098,40 @@
         <v>0.246544328662</v>
       </c>
       <c r="K170">
-        <v>21118319.85439415</v>
+        <v>17649908.25399589</v>
       </c>
       <c r="L170">
         <v>0</v>
       </c>
       <c r="M170">
-        <v>0.008870853188729729</v>
+        <v>0.09267412488023324</v>
       </c>
       <c r="N170">
-        <v>7808933.867683155</v>
+        <v>6535992.263880401</v>
       </c>
       <c r="O170">
         <v>0</v>
       </c>
       <c r="P170">
-        <v>0.02395113669302163</v>
+        <v>0.06264637352761031</v>
       </c>
       <c r="Q170">
-        <v>3233853.467692125</v>
+        <v>2701990.369202291</v>
       </c>
       <c r="R170">
         <v>0</v>
       </c>
       <c r="S170">
-        <v>0.0688708822100767</v>
+        <v>0.1438596880696767</v>
       </c>
       <c r="T170">
-        <v>32161107.18976942</v>
+        <v>26887890.88707858</v>
       </c>
       <c r="U170">
         <v>0</v>
       </c>
       <c r="V170">
-        <v>0.01499101995477148</v>
+        <v>0.0926283143408512</v>
       </c>
     </row>
     <row r="171" spans="1:22">
@@ -10207,40 +10207,40 @@
         <v>0.06321533988480001</v>
       </c>
       <c r="K172">
-        <v>21118319.85439415</v>
+        <v>17649908.25399589</v>
       </c>
       <c r="L172">
         <v>0</v>
       </c>
       <c r="M172">
-        <v>0.008870853188729729</v>
+        <v>0.09267412488023324</v>
       </c>
       <c r="N172">
-        <v>7808933.867683155</v>
+        <v>6535992.263880401</v>
       </c>
       <c r="O172">
         <v>0</v>
       </c>
       <c r="P172">
-        <v>0.02395113669302163</v>
+        <v>0.06264637352761031</v>
       </c>
       <c r="Q172">
-        <v>3233853.467692125</v>
+        <v>2701990.369202291</v>
       </c>
       <c r="R172">
         <v>0</v>
       </c>
       <c r="S172">
-        <v>0.0688708822100767</v>
+        <v>0.1438596880696767</v>
       </c>
       <c r="T172">
-        <v>32161107.18976942</v>
+        <v>26887890.88707858</v>
       </c>
       <c r="U172">
         <v>0</v>
       </c>
       <c r="V172">
-        <v>0.01499101995477148</v>
+        <v>0.0926283143408512</v>
       </c>
     </row>
     <row r="173" spans="1:22">
@@ -10275,40 +10275,40 @@
         <v>2.58494964248</v>
       </c>
       <c r="K173">
-        <v>14351238.907969</v>
+        <v>11976877.48604461</v>
       </c>
       <c r="L173">
         <v>0</v>
       </c>
       <c r="M173">
-        <v>0.006028307853405758</v>
+        <v>0.06288682206411261</v>
       </c>
       <c r="N173">
-        <v>5459820.49948856</v>
+        <v>4567986.169984983</v>
       </c>
       <c r="O173">
         <v>0</v>
       </c>
       <c r="P173">
-        <v>0.01674606410022143</v>
+        <v>0.043783370040885</v>
       </c>
       <c r="Q173">
-        <v>2629386.985615877</v>
+        <v>2195047.415124135</v>
       </c>
       <c r="R173">
         <v>0</v>
       </c>
       <c r="S173">
-        <v>0.05599765208294837</v>
+        <v>0.1168689718650388</v>
       </c>
       <c r="T173">
-        <v>22440446.39307344</v>
+        <v>18739911.07115373</v>
       </c>
       <c r="U173">
         <v>0</v>
       </c>
       <c r="V173">
-        <v>0.010459999952351</v>
+        <v>0.0645586662304039</v>
       </c>
     </row>
     <row r="174" spans="1:22">
@@ -10411,7 +10411,7 @@
         <v>0.872716799823</v>
       </c>
       <c r="K175">
-        <v>546258878.7380069</v>
+        <v>54625887.87380069</v>
       </c>
       <c r="L175">
         <v>546258.8787380069</v>
@@ -10420,16 +10420,16 @@
         <v>0.2868233807030759</v>
       </c>
       <c r="N175">
-        <v>99734656.19176105</v>
+        <v>39893862.47670442</v>
       </c>
       <c r="O175">
         <v>199469.3123835221</v>
       </c>
       <c r="P175">
-        <v>0.3823758825398258</v>
+        <v>0.3823758825398257</v>
       </c>
       <c r="Q175">
-        <v>4990000</v>
+        <v>2495000</v>
       </c>
       <c r="R175">
         <v>49900</v>
@@ -10438,13 +10438,13 @@
         <v>0.1328390825611309</v>
       </c>
       <c r="T175">
-        <v>650983534.929768</v>
+        <v>97014750.35050511</v>
       </c>
       <c r="U175">
         <v>795628.191121529</v>
       </c>
       <c r="V175">
-        <v>0.303530874241405</v>
+        <v>0.3342141199882774</v>
       </c>
     </row>
     <row r="176" spans="1:22">
@@ -10659,40 +10659,40 @@
         <v>0.59494629104</v>
       </c>
       <c r="K179">
-        <v>183177.5730435495</v>
+        <v>157644.7617492419</v>
       </c>
       <c r="L179">
         <v>0</v>
       </c>
       <c r="M179">
-        <v>7.694463239219468e-05</v>
+        <v>0.0008277431319653624</v>
       </c>
       <c r="N179">
-        <v>41194.79861396769</v>
+        <v>35452.72548874199</v>
       </c>
       <c r="O179">
         <v>0</v>
       </c>
       <c r="P179">
-        <v>0.0001263504428854093</v>
+        <v>0.0003398083403209185</v>
       </c>
       <c r="Q179">
-        <v>25568.35345147974</v>
+        <v>22004.42401985883</v>
       </c>
       <c r="R179">
         <v>0</v>
       </c>
       <c r="S179">
-        <v>0.0005445253090329928</v>
+        <v>0.001171562123881426</v>
       </c>
       <c r="T179">
-        <v>249940.7251089969</v>
+        <v>215101.9112578427</v>
       </c>
       <c r="U179">
         <v>0</v>
       </c>
       <c r="V179">
-        <v>0.0001165030288139744</v>
+        <v>0.0007410223261834342</v>
       </c>
     </row>
     <row r="180" spans="1:22">
@@ -10727,40 +10727,40 @@
         <v>0.37002271925</v>
       </c>
       <c r="K180">
-        <v>347064.0789145166</v>
+        <v>275238.7844108393</v>
       </c>
       <c r="L180">
         <v>0</v>
       </c>
       <c r="M180">
-        <v>0.0001457859579909612</v>
+        <v>0.001445192411841511</v>
       </c>
       <c r="N180">
-        <v>78172.3812185571</v>
+        <v>61898.44152953263</v>
       </c>
       <c r="O180">
         <v>0</v>
       </c>
       <c r="P180">
-        <v>0.0002397660704917916</v>
+        <v>0.000593286027932637</v>
       </c>
       <c r="Q180">
-        <v>52916.75374514071</v>
+        <v>41640.50920788846</v>
       </c>
       <c r="R180">
         <v>0</v>
       </c>
       <c r="S180">
-        <v>0.001126960003145135</v>
+        <v>0.002217028873969629</v>
       </c>
       <c r="T180">
-        <v>478153.2138782145</v>
+        <v>378777.7351482604</v>
       </c>
       <c r="U180">
         <v>0</v>
       </c>
       <c r="V180">
-        <v>0.0002228780349006952</v>
+        <v>0.001304882679864254</v>
       </c>
     </row>
     <row r="181" spans="1:22">
@@ -10907,40 +10907,40 @@
         <v>0.28683599034</v>
       </c>
       <c r="K183">
-        <v>661054.3415766883</v>
+        <v>466299.8756022203</v>
       </c>
       <c r="L183">
         <v>0</v>
       </c>
       <c r="M183">
-        <v>0.000277679098258332</v>
+        <v>0.00244839419453718</v>
       </c>
       <c r="N183">
-        <v>148082.9411038727</v>
+        <v>104303.0676734946</v>
       </c>
       <c r="O183">
         <v>0</v>
       </c>
       <c r="P183">
-        <v>0.0004541919325199535</v>
+        <v>0.0009997271529311779</v>
       </c>
       <c r="Q183">
-        <v>129554.6037689415</v>
+        <v>93244.07079369763</v>
       </c>
       <c r="R183">
         <v>0</v>
       </c>
       <c r="S183">
-        <v>0.002759104562122167</v>
+        <v>0.004964511750901775</v>
       </c>
       <c r="T183">
-        <v>938691.8864495025</v>
+        <v>663847.0140694125</v>
       </c>
       <c r="U183">
         <v>0</v>
       </c>
       <c r="V183">
-        <v>0.000437545533433094</v>
+        <v>0.002286941365230232</v>
       </c>
     </row>
     <row r="184" spans="1:22">
@@ -10954,40 +10954,40 @@
         <v>0.363445886177</v>
       </c>
       <c r="K184">
-        <v>55062489.51025157</v>
+        <v>46301607.4988223</v>
       </c>
       <c r="L184">
         <v>0</v>
       </c>
       <c r="M184">
-        <v>0.02312926710169981</v>
+        <v>0.2431151988866538</v>
       </c>
       <c r="N184">
-        <v>12462521.28203633</v>
+        <v>10468625.46313123</v>
       </c>
       <c r="O184">
         <v>0</v>
       </c>
       <c r="P184">
-        <v>0.03822436658108149</v>
+        <v>0.100339993470955</v>
       </c>
       <c r="Q184">
-        <v>10215066.67820977</v>
+        <v>8604809.344446503</v>
       </c>
       <c r="R184">
         <v>0</v>
       </c>
       <c r="S184">
-        <v>0.2175487111557779</v>
+        <v>0.4581382681081039</v>
       </c>
       <c r="T184">
-        <v>77740077.47049767</v>
+        <v>65375042.30640004</v>
       </c>
       <c r="U184">
         <v>0</v>
       </c>
       <c r="V184">
-        <v>0.03623640957909654</v>
+        <v>0.225215878561668</v>
       </c>
     </row>
     <row r="185" spans="1:22">
@@ -11019,40 +11019,40 @@
         <v>0.0551403417203</v>
       </c>
       <c r="K185">
-        <v>12752693.10916363</v>
+        <v>10662357.88308528</v>
       </c>
       <c r="L185">
         <v>0</v>
       </c>
       <c r="M185">
-        <v>0.005356830899063079</v>
+        <v>0.05598469248422726</v>
       </c>
       <c r="N185">
-        <v>5807928.022694057</v>
+        <v>4869828.155866048</v>
       </c>
       <c r="O185">
         <v>0</v>
       </c>
       <c r="P185">
-        <v>0.01781376053784509</v>
+        <v>0.04667647410686113</v>
       </c>
       <c r="Q185">
-        <v>2458487.186544415</v>
+        <v>2057422.564739392</v>
       </c>
       <c r="R185">
         <v>0</v>
       </c>
       <c r="S185">
-        <v>0.05235802522626948</v>
+        <v>0.1095415334431061</v>
       </c>
       <c r="T185">
-        <v>21019108.31840211</v>
+        <v>17589608.60369072</v>
       </c>
       <c r="U185">
         <v>0</v>
       </c>
       <c r="V185">
-        <v>0.009797482106987384</v>
+        <v>0.06059589432721885</v>
       </c>
     </row>
     <row r="186" spans="1:22">
@@ -11134,40 +11134,40 @@
         <v>0.809723318079</v>
       </c>
       <c r="K187">
-        <v>12752693.10916363</v>
+        <v>10662357.88308528</v>
       </c>
       <c r="L187">
         <v>0</v>
       </c>
       <c r="M187">
-        <v>0.005356830899063079</v>
+        <v>0.05598469248422726</v>
       </c>
       <c r="N187">
-        <v>5807928.022694057</v>
+        <v>4869828.155866048</v>
       </c>
       <c r="O187">
         <v>0</v>
       </c>
       <c r="P187">
-        <v>0.01781376053784509</v>
+        <v>0.04667647410686113</v>
       </c>
       <c r="Q187">
-        <v>2458487.186544415</v>
+        <v>2057422.564739392</v>
       </c>
       <c r="R187">
         <v>0</v>
       </c>
       <c r="S187">
-        <v>0.05235802522626948</v>
+        <v>0.1095415334431061</v>
       </c>
       <c r="T187">
-        <v>21019108.31840211</v>
+        <v>17589608.60369072</v>
       </c>
       <c r="U187">
         <v>0</v>
       </c>
       <c r="V187">
-        <v>0.009797482106987384</v>
+        <v>0.06059589432721885</v>
       </c>
     </row>
     <row r="188" spans="1:22">
@@ -11249,40 +11249,40 @@
         <v>0.0279017235435</v>
       </c>
       <c r="K189">
-        <v>38521781.71584983</v>
+        <v>32734016.29953552</v>
       </c>
       <c r="L189">
         <v>0</v>
       </c>
       <c r="M189">
-        <v>0.01618126217074481</v>
+        <v>0.1718760387147025</v>
       </c>
       <c r="N189">
-        <v>7941818.344441971</v>
+        <v>6724305.333583225</v>
       </c>
       <c r="O189">
         <v>0</v>
       </c>
       <c r="P189">
-        <v>0.02435871272339406</v>
+        <v>0.0644513222528296</v>
       </c>
       <c r="Q189">
-        <v>6053051.798270402</v>
+        <v>5162253.587673319</v>
       </c>
       <c r="R189">
         <v>0</v>
       </c>
       <c r="S189">
-        <v>0.1289109174472535</v>
+        <v>0.2748493108354428</v>
       </c>
       <c r="T189">
-        <v>52516651.85856221</v>
+        <v>44620575.22079207</v>
       </c>
       <c r="U189">
         <v>0</v>
       </c>
       <c r="V189">
-        <v>0.02447920002641977</v>
+        <v>0.1537171020582863</v>
       </c>
     </row>
     <row r="190" spans="1:22">
@@ -11317,40 +11317,40 @@
         <v>0.726554753339</v>
       </c>
       <c r="K190">
-        <v>14399700.07313055</v>
+        <v>12229296.52691965</v>
       </c>
       <c r="L190">
         <v>0</v>
       </c>
       <c r="M190">
-        <v>0.00604866420203893</v>
+        <v>0.06421219516971537</v>
       </c>
       <c r="N190">
-        <v>4450435.135219795</v>
+        <v>3750924.367262154</v>
       </c>
       <c r="O190">
         <v>0</v>
       </c>
       <c r="P190">
-        <v>0.01365013228095127</v>
+        <v>0.03595197171267951</v>
       </c>
       <c r="Q190">
-        <v>2214836.567015435</v>
+        <v>1891843.28191638</v>
       </c>
       <c r="R190">
         <v>0</v>
       </c>
       <c r="S190">
-        <v>0.04716903528419639</v>
+        <v>0.1007257418513871</v>
       </c>
       <c r="T190">
-        <v>21064971.77536578</v>
+        <v>17872064.17609818</v>
       </c>
       <c r="U190">
         <v>0</v>
       </c>
       <c r="V190">
-        <v>0.009818860102293339</v>
+        <v>0.06156894883930991</v>
       </c>
     </row>
     <row r="191" spans="1:22">
@@ -11385,40 +11385,40 @@
         <v>0.31407555055</v>
       </c>
       <c r="K191">
-        <v>38521781.71584983</v>
+        <v>32734016.29953552</v>
       </c>
       <c r="L191">
         <v>0</v>
       </c>
       <c r="M191">
-        <v>0.01618126217074481</v>
+        <v>0.1718760387147025</v>
       </c>
       <c r="N191">
-        <v>7941818.344441971</v>
+        <v>6724305.333583225</v>
       </c>
       <c r="O191">
         <v>0</v>
       </c>
       <c r="P191">
-        <v>0.02435871272339406</v>
+        <v>0.0644513222528296</v>
       </c>
       <c r="Q191">
-        <v>6053051.798270402</v>
+        <v>5162253.587673319</v>
       </c>
       <c r="R191">
         <v>0</v>
       </c>
       <c r="S191">
-        <v>0.1289109174472535</v>
+        <v>0.2748493108354428</v>
       </c>
       <c r="T191">
-        <v>52516651.85856221</v>
+        <v>44620575.22079207</v>
       </c>
       <c r="U191">
         <v>0</v>
       </c>
       <c r="V191">
-        <v>0.02447920002641977</v>
+        <v>0.1537171020582863</v>
       </c>
     </row>
     <row r="192" spans="1:22">
@@ -11453,7 +11453,7 @@
         <v>1.45773455595</v>
       </c>
       <c r="K192">
-        <v>553287091.3637156</v>
+        <v>55328709.13637157</v>
       </c>
       <c r="L192">
         <v>553287.0913637157</v>
@@ -11462,16 +11462,16 @@
         <v>0.2905136744155789</v>
       </c>
       <c r="N192">
-        <v>92180578.2870276</v>
+        <v>36872231.31481104</v>
       </c>
       <c r="O192">
         <v>184361.1565740552</v>
       </c>
       <c r="P192">
-        <v>0.3534140620865292</v>
+        <v>0.3534140620865291</v>
       </c>
       <c r="Q192">
-        <v>10263550.75497798</v>
+        <v>5131775.377488989</v>
       </c>
       <c r="R192">
         <v>102635.5075497798</v>
@@ -11480,13 +11480,13 @@
         <v>0.2732265863949653</v>
       </c>
       <c r="T192">
-        <v>655731220.4057212</v>
+        <v>97332715.82867159</v>
       </c>
       <c r="U192">
         <v>840283.7554875507</v>
       </c>
       <c r="V192">
-        <v>0.3057490816371321</v>
+        <v>0.3353095055053057</v>
       </c>
     </row>
     <row r="193" spans="1:22">
@@ -11521,7 +11521,7 @@
         <v>7.36009593842</v>
       </c>
       <c r="K193">
-        <v>553287091.3637156</v>
+        <v>55328709.13637157</v>
       </c>
       <c r="L193">
         <v>553287.0913637157</v>
@@ -11530,16 +11530,16 @@
         <v>0.2905136744155789</v>
       </c>
       <c r="N193">
-        <v>92180578.2870276</v>
+        <v>36872231.31481104</v>
       </c>
       <c r="O193">
         <v>184361.1565740552</v>
       </c>
       <c r="P193">
-        <v>0.3534140620865292</v>
+        <v>0.3534140620865291</v>
       </c>
       <c r="Q193">
-        <v>10263550.75497798</v>
+        <v>5131775.377488989</v>
       </c>
       <c r="R193">
         <v>102635.5075497798</v>
@@ -11548,13 +11548,13 @@
         <v>0.2732265863949653</v>
       </c>
       <c r="T193">
-        <v>655731220.4057212</v>
+        <v>97332715.82867159</v>
       </c>
       <c r="U193">
         <v>840283.7554875507</v>
       </c>
       <c r="V193">
-        <v>0.3057490816371321</v>
+        <v>0.3353095055053057</v>
       </c>
     </row>
     <row r="194" spans="1:22">
@@ -11589,40 +11589,40 @@
         <v>0.7323786517380001</v>
       </c>
       <c r="K194">
-        <v>1627310.077226873</v>
+        <v>1438756.593081107</v>
       </c>
       <c r="L194">
         <v>0</v>
       </c>
       <c r="M194">
-        <v>0.0006835595296950844</v>
+        <v>0.007554458995517477</v>
       </c>
       <c r="N194">
-        <v>434553.3023941617</v>
+        <v>384885.5159973467</v>
       </c>
       <c r="O194">
         <v>0</v>
       </c>
       <c r="P194">
-        <v>0.001332838223809227</v>
+        <v>0.003689062169455779</v>
       </c>
       <c r="Q194">
-        <v>318148.272664974</v>
+        <v>283593.7007620282</v>
       </c>
       <c r="R194">
         <v>0</v>
       </c>
       <c r="S194">
-        <v>0.006775555055586958</v>
+        <v>0.01509912906987724</v>
       </c>
       <c r="T194">
-        <v>2380011.652286008</v>
+        <v>2107235.809840482</v>
       </c>
       <c r="U194">
         <v>0</v>
       </c>
       <c r="V194">
-        <v>0.001109377297288999</v>
+        <v>0.007259390548851264</v>
       </c>
     </row>
     <row r="195" spans="1:22">
@@ -11657,40 +11657,40 @@
         <v>0.831220356866</v>
       </c>
       <c r="K195">
-        <v>10175344.86249349</v>
+        <v>8517025.655073613</v>
       </c>
       <c r="L195">
         <v>0</v>
       </c>
       <c r="M195">
-        <v>0.00427420320566333</v>
+        <v>0.04472022674609344</v>
       </c>
       <c r="N195">
-        <v>3650182.092147511</v>
+        <v>3063216.060447585</v>
       </c>
       <c r="O195">
         <v>0</v>
       </c>
       <c r="P195">
-        <v>0.01119563972813914</v>
+        <v>0.0293604046288519</v>
       </c>
       <c r="Q195">
-        <v>2033599.744484171</v>
+        <v>1703971.297730697</v>
       </c>
       <c r="R195">
         <v>0</v>
       </c>
       <c r="S195">
-        <v>0.0433092624214553</v>
+        <v>0.09072303963969755</v>
       </c>
       <c r="T195">
-        <v>15859126.69912517</v>
+        <v>13284213.0132519</v>
       </c>
       <c r="U195">
         <v>0</v>
       </c>
       <c r="V195">
-        <v>0.007392297889777315</v>
+        <v>0.04576388173881116</v>
       </c>
     </row>
     <row r="196" spans="1:22">
@@ -11725,40 +11725,40 @@
         <v>2.52608189955</v>
       </c>
       <c r="K196">
-        <v>6155155.087215347</v>
+        <v>5306037.612121764</v>
       </c>
       <c r="L196">
         <v>0</v>
       </c>
       <c r="M196">
-        <v>0.00258550289554352</v>
+        <v>0.02786033701754003</v>
       </c>
       <c r="N196">
-        <v>1325129.838337459</v>
+        <v>1133596.107616192</v>
       </c>
       <c r="O196">
         <v>0</v>
       </c>
       <c r="P196">
-        <v>0.004064366075037419</v>
+        <v>0.01086532577151603</v>
       </c>
       <c r="Q196">
-        <v>1586077.424223768</v>
+        <v>1362646.144787669</v>
       </c>
       <c r="R196">
         <v>0</v>
       </c>
       <c r="S196">
-        <v>0.03377844808093096</v>
+        <v>0.07255016582326888</v>
       </c>
       <c r="T196">
-        <v>9066362.349776573</v>
+        <v>7802279.864525625</v>
       </c>
       <c r="U196">
         <v>0</v>
       </c>
       <c r="V196">
-        <v>0.004226036687751977</v>
+        <v>0.02687871781768814</v>
       </c>
     </row>
     <row r="197" spans="1:22">
@@ -11793,7 +11793,7 @@
         <v>2.04005360405</v>
       </c>
       <c r="K197">
-        <v>554412926.420845</v>
+        <v>55441292.64208451</v>
       </c>
       <c r="L197">
         <v>554412.926420845</v>
@@ -11802,7 +11802,7 @@
         <v>0.2911048150446263</v>
       </c>
       <c r="N197">
-        <v>98356378.01107551</v>
+        <v>39342551.20443021</v>
       </c>
       <c r="O197">
         <v>196712.756022151</v>
@@ -11811,7 +11811,7 @@
         <v>0.3770916578194667</v>
       </c>
       <c r="Q197">
-        <v>4852999.999999999</v>
+        <v>2426500</v>
       </c>
       <c r="R197">
         <v>48529.99999999999</v>
@@ -11820,13 +11820,13 @@
         <v>0.1291919975288914</v>
       </c>
       <c r="T197">
-        <v>657622304.4319205</v>
+        <v>97210343.84651472</v>
       </c>
       <c r="U197">
         <v>799655.682442996</v>
       </c>
       <c r="V197">
-        <v>0.3066258242860431</v>
+        <v>0.3348879361647671</v>
       </c>
     </row>
     <row r="198" spans="1:22">
@@ -11929,40 +11929,40 @@
         <v>0.422837802542</v>
       </c>
       <c r="K199">
-        <v>7083964.668740825</v>
+        <v>5936532.680396743</v>
       </c>
       <c r="L199">
         <v>0</v>
       </c>
       <c r="M199">
-        <v>0.002975653887421959</v>
+        <v>0.03117086859950777</v>
       </c>
       <c r="N199">
-        <v>2334017.683314731</v>
+        <v>1949757.892864822</v>
       </c>
       <c r="O199">
         <v>0</v>
       </c>
       <c r="P199">
-        <v>0.007158771930231058</v>
+        <v>0.01868809758539995</v>
       </c>
       <c r="Q199">
-        <v>1181910.120153646</v>
+        <v>989963.0490317161</v>
       </c>
       <c r="R199">
         <v>0</v>
       </c>
       <c r="S199">
-        <v>0.02517095888271362</v>
+        <v>0.05270772873859438</v>
       </c>
       <c r="T199">
-        <v>10599892.4722092</v>
+        <v>8876253.622293282</v>
       </c>
       <c r="U199">
         <v>0</v>
       </c>
       <c r="V199">
-        <v>0.004940849785789335</v>
+        <v>0.03057853864953087</v>
       </c>
     </row>
     <row r="200" spans="1:22">
@@ -11997,40 +11997,40 @@
         <v>5.35462675471</v>
       </c>
       <c r="K200">
-        <v>608756.1213593652</v>
+        <v>467392.1755632366</v>
       </c>
       <c r="L200">
         <v>0</v>
       </c>
       <c r="M200">
-        <v>0.0002557109759465943</v>
+        <v>0.002454129518570435</v>
       </c>
       <c r="N200">
-        <v>230423.0627634126</v>
+        <v>182448.7475665294</v>
       </c>
       <c r="O200">
         <v>0</v>
       </c>
       <c r="P200">
-        <v>0.0007067410695217744</v>
+        <v>0.001748740195557036</v>
       </c>
       <c r="Q200">
-        <v>76964.01797328757</v>
+        <v>59423.36061057313</v>
       </c>
       <c r="R200">
         <v>0</v>
       </c>
       <c r="S200">
-        <v>0.001639090907862109</v>
+        <v>0.00316382553355021</v>
       </c>
       <c r="T200">
-        <v>916143.2020960654</v>
+        <v>709264.2837403391</v>
       </c>
       <c r="U200">
         <v>0</v>
       </c>
       <c r="V200">
-        <v>0.0004270350813176971</v>
+        <v>0.002443403065749982</v>
       </c>
     </row>
     <row r="201" spans="1:22">
@@ -12065,40 +12065,40 @@
         <v>4.38034317427</v>
       </c>
       <c r="K201">
-        <v>1627310.077226873</v>
+        <v>1438756.593081107</v>
       </c>
       <c r="L201">
         <v>0</v>
       </c>
       <c r="M201">
-        <v>0.0006835595296950844</v>
+        <v>0.007554458995517477</v>
       </c>
       <c r="N201">
-        <v>434553.3023941617</v>
+        <v>384885.5159973467</v>
       </c>
       <c r="O201">
         <v>0</v>
       </c>
       <c r="P201">
-        <v>0.001332838223809227</v>
+        <v>0.003689062169455779</v>
       </c>
       <c r="Q201">
-        <v>318148.272664974</v>
+        <v>283593.7007620282</v>
       </c>
       <c r="R201">
         <v>0</v>
       </c>
       <c r="S201">
-        <v>0.006775555055586958</v>
+        <v>0.01509912906987724</v>
       </c>
       <c r="T201">
-        <v>2380011.652286008</v>
+        <v>2107235.809840482</v>
       </c>
       <c r="U201">
         <v>0</v>
       </c>
       <c r="V201">
-        <v>0.001109377297288999</v>
+        <v>0.007259390548851264</v>
       </c>
     </row>
     <row r="202" spans="1:22">
@@ -12133,40 +12133,40 @@
         <v>2.33604208395</v>
       </c>
       <c r="K202">
-        <v>1014368.618125155</v>
+        <v>862302.6432205727</v>
       </c>
       <c r="L202">
         <v>0</v>
       </c>
       <c r="M202">
-        <v>0.0004260904822298444</v>
+        <v>0.00452768035348209</v>
       </c>
       <c r="N202">
-        <v>320490.8104444401</v>
+        <v>274296.4416508707</v>
       </c>
       <c r="O202">
         <v>0</v>
       </c>
       <c r="P202">
-        <v>0.0009829919602187013</v>
+        <v>0.002629084712342194</v>
       </c>
       <c r="Q202">
-        <v>228604.8080781119</v>
+        <v>193385.453989659</v>
       </c>
       <c r="R202">
         <v>0</v>
       </c>
       <c r="S202">
-        <v>0.004868561599063692</v>
+        <v>0.01029625101749663</v>
       </c>
       <c r="T202">
-        <v>1563464.236647707</v>
+        <v>1329984.538861102</v>
       </c>
       <c r="U202">
         <v>0</v>
       </c>
       <c r="V202">
-        <v>0.0007287660661636992</v>
+        <v>0.004581773499880619</v>
       </c>
     </row>
     <row r="203" spans="1:22">
@@ -12201,7 +12201,7 @@
         <v>2.06926511317</v>
       </c>
       <c r="K203">
-        <v>692662698.0131587</v>
+        <v>69266269.80131587</v>
       </c>
       <c r="L203">
         <v>692662.6980131587</v>
@@ -12210,16 +12210,16 @@
         <v>0.3636954280542387</v>
       </c>
       <c r="N203">
-        <v>103849668.788927</v>
+        <v>41539867.51557078</v>
       </c>
       <c r="O203">
         <v>207699.3375778539</v>
       </c>
       <c r="P203">
-        <v>0.3981525607135439</v>
+        <v>0.3981525607135437</v>
       </c>
       <c r="Q203">
-        <v>12756788.27725628</v>
+        <v>6378394.138628142</v>
       </c>
       <c r="R203">
         <v>127567.8827725629</v>
@@ -12228,13 +12228,13 @@
         <v>0.3395992086527683</v>
       </c>
       <c r="T203">
-        <v>809269155.0793419</v>
+        <v>117184531.4555148</v>
       </c>
       <c r="U203">
         <v>1027929.918363576</v>
       </c>
       <c r="V203">
-        <v>0.3773384545018224</v>
+        <v>0.4036986635036945</v>
       </c>
     </row>
     <row r="204" spans="1:22">
@@ -12334,40 +12334,40 @@
         <v>0.0210530568995</v>
       </c>
       <c r="K205">
-        <v>10175344.86249349</v>
+        <v>8517025.655073613</v>
       </c>
       <c r="L205">
         <v>0</v>
       </c>
       <c r="M205">
-        <v>0.00427420320566333</v>
+        <v>0.04472022674609344</v>
       </c>
       <c r="N205">
-        <v>3650182.092147511</v>
+        <v>3063216.060447585</v>
       </c>
       <c r="O205">
         <v>0</v>
       </c>
       <c r="P205">
-        <v>0.01119563972813914</v>
+        <v>0.0293604046288519</v>
       </c>
       <c r="Q205">
-        <v>2033599.744484171</v>
+        <v>1703971.297730697</v>
       </c>
       <c r="R205">
         <v>0</v>
       </c>
       <c r="S205">
-        <v>0.0433092624214553</v>
+        <v>0.09072303963969755</v>
       </c>
       <c r="T205">
-        <v>15859126.69912517</v>
+        <v>13284213.0132519</v>
       </c>
       <c r="U205">
         <v>0</v>
       </c>
       <c r="V205">
-        <v>0.007392297889777315</v>
+        <v>0.04576388173881116</v>
       </c>
     </row>
     <row r="206" spans="1:22">
@@ -12402,40 +12402,40 @@
         <v>4.62418337496</v>
       </c>
       <c r="K206">
-        <v>7155672.906526901</v>
+        <v>5988930.415287757</v>
       </c>
       <c r="L206">
         <v>0</v>
       </c>
       <c r="M206">
-        <v>0.003005775282220819</v>
+        <v>0.03144599264870117</v>
       </c>
       <c r="N206">
-        <v>1747338.990062809</v>
+        <v>1464224.448115796</v>
       </c>
       <c r="O206">
         <v>0</v>
       </c>
       <c r="P206">
-        <v>0.005359342992164113</v>
+        <v>0.01403434214753222</v>
       </c>
       <c r="Q206">
-        <v>1483412.859358311</v>
+        <v>1243381.959408321</v>
       </c>
       <c r="R206">
         <v>0</v>
       </c>
       <c r="S206">
-        <v>0.03159201656056783</v>
+        <v>0.06620028808050604</v>
       </c>
       <c r="T206">
-        <v>10386424.75594802</v>
+        <v>8696536.822811874</v>
       </c>
       <c r="U206">
         <v>0</v>
       </c>
       <c r="V206">
-        <v>0.004841347651883049</v>
+        <v>0.02995941741519502</v>
       </c>
     </row>
     <row r="207" spans="1:22">
@@ -12470,7 +12470,7 @@
         <v>2.92862111308</v>
       </c>
       <c r="K207">
-        <v>533521366.386723</v>
+        <v>53352136.63867231</v>
       </c>
       <c r="L207">
         <v>533521.366386723</v>
@@ -12479,7 +12479,7 @@
         <v>0.2801353130184229</v>
       </c>
       <c r="N207">
-        <v>55440000.00000001</v>
+        <v>22176000</v>
       </c>
       <c r="O207">
         <v>110880</v>
@@ -12488,7 +12488,7 @@
         <v>0.2125531859983407</v>
       </c>
       <c r="Q207">
-        <v>10880887.59703139</v>
+        <v>5440443.798515694</v>
       </c>
       <c r="R207">
         <v>108808.8759703139</v>
@@ -12497,13 +12497,13 @@
         <v>0.2896607466614103</v>
       </c>
       <c r="T207">
-        <v>599842253.9837544</v>
+        <v>80968580.437188</v>
       </c>
       <c r="U207">
         <v>753210.2423570369</v>
       </c>
       <c r="V207">
-        <v>0.2796878227342328</v>
+        <v>0.2789353449835884</v>
       </c>
     </row>
     <row r="208" spans="1:22">
@@ -12538,40 +12538,40 @@
         <v>1.87666721052</v>
       </c>
       <c r="K208">
-        <v>288039.4231481986</v>
+        <v>239910.5399251747</v>
       </c>
       <c r="L208">
         <v>0</v>
       </c>
       <c r="M208">
-        <v>0.0001209923636412018</v>
+        <v>0.001259694895698748</v>
       </c>
       <c r="N208">
-        <v>86567.97857769013</v>
+        <v>75665.80586438233</v>
       </c>
       <c r="O208">
         <v>0</v>
       </c>
       <c r="P208">
-        <v>0.0002655165894967408</v>
+        <v>0.0007252438720962477</v>
       </c>
       <c r="Q208">
-        <v>185804.6612250616</v>
+        <v>154620.1030209438</v>
       </c>
       <c r="R208">
         <v>0</v>
       </c>
       <c r="S208">
-        <v>0.003957053424083192</v>
+        <v>0.008232301655635156</v>
       </c>
       <c r="T208">
-        <v>560412.0629509503</v>
+        <v>470196.4488105009</v>
       </c>
       <c r="U208">
         <v>0</v>
       </c>
       <c r="V208">
-        <v>0.0002612207461957275</v>
+        <v>0.00161981855123123</v>
       </c>
     </row>
     <row r="209" spans="1:22">
@@ -12606,40 +12606,40 @@
         <v>1.68088691377</v>
       </c>
       <c r="K209">
-        <v>6508057.749837175</v>
+        <v>5609472.232189999</v>
       </c>
       <c r="L209">
         <v>0</v>
       </c>
       <c r="M209">
-        <v>0.002733741379078879</v>
+        <v>0.02945357690686485</v>
       </c>
       <c r="N209">
-        <v>1426269.232014399</v>
+        <v>1223532.488741295</v>
       </c>
       <c r="O209">
         <v>0</v>
       </c>
       <c r="P209">
-        <v>0.004374575315383363</v>
+        <v>0.01172735067886188</v>
       </c>
       <c r="Q209">
-        <v>1699943.269634178</v>
+        <v>1459516.831651204</v>
       </c>
       <c r="R209">
         <v>0</v>
       </c>
       <c r="S209">
-        <v>0.0362034315581841</v>
+        <v>0.07770776629221419</v>
       </c>
       <c r="T209">
-        <v>9634270.251485752</v>
+        <v>8292521.552582499</v>
       </c>
       <c r="U209">
         <v>0</v>
       </c>
       <c r="V209">
-        <v>0.0044907514140442</v>
+        <v>0.02856759186790768</v>
       </c>
     </row>
     <row r="210" spans="1:22">
@@ -12715,40 +12715,40 @@
         <v>3.01411723961</v>
       </c>
       <c r="K211">
-        <v>6565248.469729171</v>
+        <v>5407901.410327171</v>
       </c>
       <c r="L211">
         <v>0</v>
       </c>
       <c r="M211">
-        <v>0.002757764619725748</v>
+        <v>0.02839519182923717</v>
       </c>
       <c r="N211">
-        <v>1010691.091405821</v>
+        <v>838016.1830644035</v>
       </c>
       <c r="O211">
         <v>0</v>
       </c>
       <c r="P211">
-        <v>0.003099936674436472</v>
+        <v>0.008032242497678014</v>
       </c>
       <c r="Q211">
-        <v>1387834.703238507</v>
+        <v>1142490.303971373</v>
       </c>
       <c r="R211">
         <v>0</v>
       </c>
       <c r="S211">
-        <v>0.02955650320235713</v>
+        <v>0.06082860273128044</v>
       </c>
       <c r="T211">
-        <v>8963774.2643735</v>
+        <v>7388407.897362947</v>
       </c>
       <c r="U211">
         <v>0</v>
       </c>
       <c r="V211">
-        <v>0.004178218059297279</v>
+        <v>0.02545293612167441</v>
       </c>
     </row>
     <row r="212" spans="1:22">
@@ -12783,40 +12783,40 @@
         <v>1.91368085665</v>
       </c>
       <c r="K212">
-        <v>24758963.75710398</v>
+        <v>20871749.11697193</v>
       </c>
       <c r="L212">
         <v>0</v>
       </c>
       <c r="M212">
-        <v>0.01040012340511312</v>
+        <v>0.1095909993581548</v>
       </c>
       <c r="N212">
-        <v>6544283.960080467</v>
+        <v>5506037.737110773</v>
       </c>
       <c r="O212">
         <v>0</v>
       </c>
       <c r="P212">
-        <v>0.02007227136786351</v>
+        <v>0.05277443467036385</v>
       </c>
       <c r="Q212">
-        <v>5225361.37725636</v>
+        <v>4406645.140278744</v>
       </c>
       <c r="R212">
         <v>0</v>
       </c>
       <c r="S212">
-        <v>0.111283721267351</v>
+        <v>0.2346191172773924</v>
       </c>
       <c r="T212">
-        <v>36528609.0944408</v>
+        <v>30784431.99436145</v>
       </c>
       <c r="U212">
         <v>0</v>
       </c>
       <c r="V212">
-        <v>0.01702681144102536</v>
+        <v>0.1060518303779866</v>
       </c>
     </row>
     <row r="213" spans="1:22">
@@ -12851,40 +12851,40 @@
         <v>3.46223026514</v>
       </c>
       <c r="K213">
-        <v>288039.4231481986</v>
+        <v>239910.5399251747</v>
       </c>
       <c r="L213">
         <v>0</v>
       </c>
       <c r="M213">
-        <v>0.0001209923636412018</v>
+        <v>0.001259694895698748</v>
       </c>
       <c r="N213">
-        <v>86567.97857769013</v>
+        <v>75665.80586438233</v>
       </c>
       <c r="O213">
         <v>0</v>
       </c>
       <c r="P213">
-        <v>0.0002655165894967408</v>
+        <v>0.0007252438720962477</v>
       </c>
       <c r="Q213">
-        <v>185804.6612250616</v>
+        <v>154620.1030209438</v>
       </c>
       <c r="R213">
         <v>0</v>
       </c>
       <c r="S213">
-        <v>0.003957053424083192</v>
+        <v>0.008232301655635156</v>
       </c>
       <c r="T213">
-        <v>560412.0629509503</v>
+        <v>470196.4488105009</v>
       </c>
       <c r="U213">
         <v>0</v>
       </c>
       <c r="V213">
-        <v>0.0002612207461957275</v>
+        <v>0.00161981855123123</v>
       </c>
     </row>
     <row r="214" spans="1:22">
@@ -12945,40 +12945,40 @@
         <v>0.157670934909</v>
       </c>
       <c r="K215">
-        <v>2236066.198586238</v>
+        <v>1906148.768644343</v>
       </c>
       <c r="L215">
         <v>0</v>
       </c>
       <c r="M215">
-        <v>0.0009392705056416786</v>
+        <v>0.01000858851408791</v>
       </c>
       <c r="N215">
-        <v>2869536.073276429</v>
+        <v>2421237.240398401</v>
       </c>
       <c r="O215">
         <v>0</v>
       </c>
       <c r="P215">
-        <v>0.008801284772179984</v>
+        <v>0.02320714689324091</v>
       </c>
       <c r="Q215">
-        <v>1302467.613418549</v>
+        <v>1100636.060345292</v>
       </c>
       <c r="R215">
         <v>0</v>
       </c>
       <c r="S215">
-        <v>0.02773845335985661</v>
+        <v>0.05860019418435513</v>
       </c>
       <c r="T215">
-        <v>6408069.885281215</v>
+        <v>5428022.069388037</v>
       </c>
       <c r="U215">
         <v>0</v>
       </c>
       <c r="V215">
-        <v>0.002986946405638021</v>
+        <v>0.0186994411946969</v>
       </c>
     </row>
     <row r="216" spans="1:22">
@@ -13001,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="N216">
-        <v>81665942.52966245</v>
+        <v>32666377.01186498</v>
       </c>
       <c r="O216">
         <v>163331.8850593249</v>
@@ -13019,13 +13019,13 @@
         <v>0</v>
       </c>
       <c r="T216">
-        <v>81665942.52966245</v>
+        <v>32666377.01186498</v>
       </c>
       <c r="U216">
         <v>163331.8850593249</v>
       </c>
       <c r="V216">
-        <v>0.0380853773082809</v>
+        <v>0.1125350980833494</v>
       </c>
     </row>
     <row r="217" spans="1:22">
@@ -13039,40 +13039,40 @@
         <v>0.006887366498699999</v>
       </c>
       <c r="K217">
-        <v>2236066.198586238</v>
+        <v>1906148.768644343</v>
       </c>
       <c r="L217">
         <v>0</v>
       </c>
       <c r="M217">
-        <v>0.0009392705056416786</v>
+        <v>0.01000858851408791</v>
       </c>
       <c r="N217">
-        <v>5255193.384418864</v>
+        <v>4430055.861963809</v>
       </c>
       <c r="O217">
         <v>0</v>
       </c>
       <c r="P217">
-        <v>0.01611844295664693</v>
+        <v>0.04246133151204153</v>
       </c>
       <c r="Q217">
-        <v>1302467.613418549</v>
+        <v>1100636.060345292</v>
       </c>
       <c r="R217">
         <v>0</v>
       </c>
       <c r="S217">
-        <v>0.02773845335985661</v>
+        <v>0.05860019418435513</v>
       </c>
       <c r="T217">
-        <v>8793727.19642365</v>
+        <v>7436840.690953445</v>
       </c>
       <c r="U217">
         <v>0</v>
       </c>
       <c r="V217">
-        <v>0.004098955272296666</v>
+        <v>0.0256197862494121</v>
       </c>
     </row>
     <row r="218" spans="1:22">
@@ -13107,40 +13107,40 @@
         <v>0.404982340137</v>
       </c>
       <c r="K218">
-        <v>4166721.77728687</v>
+        <v>3537925.049180967</v>
       </c>
       <c r="L218">
         <v>0</v>
       </c>
       <c r="M218">
-        <v>0.001750251791782762</v>
+        <v>0.01857653326614163</v>
       </c>
       <c r="N218">
-        <v>5191204.990891628</v>
+        <v>4383112.775532237</v>
       </c>
       <c r="O218">
         <v>0</v>
       </c>
       <c r="P218">
-        <v>0.01592218124075761</v>
+        <v>0.04201139001755982</v>
       </c>
       <c r="Q218">
-        <v>1564759.973058384</v>
+        <v>1323661.422061337</v>
       </c>
       <c r="R218">
         <v>0</v>
       </c>
       <c r="S218">
-        <v>0.03332445358708707</v>
+        <v>0.07047453664456506</v>
       </c>
       <c r="T218">
-        <v>10922686.74123688</v>
+        <v>9244699.246774541</v>
       </c>
       <c r="U218">
         <v>0</v>
       </c>
       <c r="V218">
-        <v>0.005091311500298318</v>
+        <v>0.03184782738866222</v>
       </c>
     </row>
     <row r="219" spans="1:22">
@@ -13151,40 +13151,40 @@
         <v>0.00313213308194</v>
       </c>
       <c r="K219">
-        <v>31720431.87081939</v>
+        <v>26457080.30416946</v>
       </c>
       <c r="L219">
         <v>0</v>
       </c>
       <c r="M219">
-        <v>0.01332432201752988</v>
+        <v>0.1389178192198172</v>
       </c>
       <c r="N219">
-        <v>10238145.80889128</v>
+        <v>8568645.363089021</v>
       </c>
       <c r="O219">
         <v>0</v>
       </c>
       <c r="P219">
-        <v>0.03140188326688888</v>
+        <v>0.082129007558373</v>
       </c>
       <c r="Q219">
-        <v>5895967.246700846</v>
+        <v>4920055.807187842</v>
       </c>
       <c r="R219">
         <v>0</v>
       </c>
       <c r="S219">
-        <v>0.1255655118015578</v>
+        <v>0.2619541882069727</v>
       </c>
       <c r="T219">
-        <v>47854544.92641152</v>
+        <v>39945781.47444633</v>
       </c>
       <c r="U219">
         <v>0</v>
       </c>
       <c r="V219">
-        <v>0.02230608646914206</v>
+        <v>0.1376125192766277</v>
       </c>
     </row>
     <row r="220" spans="1:22">
@@ -13219,25 +13219,25 @@
         <v>3.20874938811</v>
       </c>
       <c r="K220">
-        <v>641238149.6603122</v>
+        <v>64123814.96603122</v>
       </c>
       <c r="L220">
         <v>641238.1496603121</v>
       </c>
       <c r="M220">
-        <v>0.3366940128209196</v>
+        <v>0.3366940128209197</v>
       </c>
       <c r="N220">
-        <v>63569999.99999999</v>
+        <v>25427999.99999999</v>
       </c>
       <c r="O220">
         <v>127140</v>
       </c>
       <c r="P220">
-        <v>0.2437230525597856</v>
+        <v>0.2437230525597855</v>
       </c>
       <c r="Q220">
-        <v>9446942.154295212</v>
+        <v>4723471.077147606</v>
       </c>
       <c r="R220">
         <v>94469.42154295211</v>
@@ -13246,13 +13246,13 @@
         <v>0.2514876009588475</v>
       </c>
       <c r="T220">
-        <v>714255091.8146074</v>
+        <v>94275286.04317883</v>
       </c>
       <c r="U220">
         <v>862847.5712032642</v>
       </c>
       <c r="V220">
-        <v>0.3330310120320258</v>
+        <v>0.3247767133114113</v>
       </c>
     </row>
     <row r="221" spans="1:22">
@@ -13287,40 +13287,40 @@
         <v>0.473771331967</v>
       </c>
       <c r="K221">
-        <v>25632669.64641554</v>
+        <v>21330053.80559201</v>
       </c>
       <c r="L221">
         <v>0</v>
       </c>
       <c r="M221">
-        <v>0.01076712782249335</v>
+        <v>0.111997413336922</v>
       </c>
       <c r="N221">
-        <v>6525053.870636865</v>
+        <v>5449668.011280715</v>
       </c>
       <c r="O221">
         <v>0</v>
       </c>
       <c r="P221">
-        <v>0.02001328988477158</v>
+        <v>0.05223414044151141</v>
       </c>
       <c r="Q221">
-        <v>4366032.734122223</v>
+        <v>3634199.383205771</v>
       </c>
       <c r="R221">
         <v>0</v>
       </c>
       <c r="S221">
-        <v>0.09298273071465522</v>
+        <v>0.1934924697031191</v>
       </c>
       <c r="T221">
-        <v>36523756.25117463</v>
+        <v>30413921.2000785</v>
       </c>
       <c r="U221">
         <v>0</v>
       </c>
       <c r="V221">
-        <v>0.01702454942094591</v>
+        <v>0.1047754271649695</v>
       </c>
     </row>
     <row r="222" spans="1:22">
@@ -13355,40 +13355,40 @@
         <v>3.91371298437</v>
       </c>
       <c r="K222">
-        <v>4138135.084870664</v>
+        <v>3397577.063649257</v>
       </c>
       <c r="L222">
         <v>0</v>
       </c>
       <c r="M222">
-        <v>0.001738243812297464</v>
+        <v>0.0178396100736423</v>
       </c>
       <c r="N222">
-        <v>1313179.61887863</v>
+        <v>1079819.235180869</v>
       </c>
       <c r="O222">
         <v>0</v>
       </c>
       <c r="P222">
-        <v>0.004027713012709084</v>
+        <v>0.01034988360118981</v>
       </c>
       <c r="Q222">
-        <v>570480.4259670672</v>
+        <v>469652.5528309482</v>
       </c>
       <c r="R222">
         <v>0</v>
       </c>
       <c r="S222">
-        <v>0.01214943429331436</v>
+        <v>0.02500529628880008</v>
       </c>
       <c r="T222">
-        <v>6021795.129716362</v>
+        <v>4947048.851661074</v>
       </c>
       <c r="U222">
         <v>0</v>
       </c>
       <c r="V222">
-        <v>0.002806894999617421</v>
+        <v>0.01704249686283212</v>
       </c>
     </row>
     <row r="223" spans="1:22">
@@ -13423,40 +13423,40 @@
         <v>3.225480915309999</v>
       </c>
       <c r="K223">
-        <v>17843134.64944401</v>
+        <v>14988878.11805707</v>
       </c>
       <c r="L223">
         <v>0</v>
       </c>
       <c r="M223">
-        <v>0.00749509567964138</v>
+        <v>0.07870189139441745</v>
       </c>
       <c r="N223">
-        <v>5385230.273295459</v>
+        <v>4514055.160918637</v>
       </c>
       <c r="O223">
         <v>0</v>
       </c>
       <c r="P223">
-        <v>0.0165172850205435</v>
+        <v>0.04326645049718202</v>
       </c>
       <c r="Q223">
-        <v>4080318.632689488</v>
+        <v>3426619.704508869</v>
       </c>
       <c r="R223">
         <v>0</v>
       </c>
       <c r="S223">
-        <v>0.08689792123824601</v>
+        <v>0.1824404881093593</v>
       </c>
       <c r="T223">
-        <v>27308683.55542896</v>
+        <v>22929552.98348458</v>
       </c>
       <c r="U223">
         <v>0</v>
       </c>
       <c r="V223">
-        <v>0.0127291954752168</v>
+        <v>0.07899190942009141</v>
       </c>
     </row>
     <row r="224" spans="1:22">
@@ -13627,40 +13627,40 @@
         <v>0.541723423291</v>
       </c>
       <c r="K226">
-        <v>2351683.244247597</v>
+        <v>1955355.772503057</v>
       </c>
       <c r="L226">
         <v>0</v>
       </c>
       <c r="M226">
-        <v>0.0009878360092067347</v>
+        <v>0.0102669590367535</v>
       </c>
       <c r="N226">
-        <v>512988.5231244599</v>
+        <v>426301.4820017872</v>
       </c>
       <c r="O226">
         <v>0</v>
       </c>
       <c r="P226">
-        <v>0.00157341046133748</v>
+        <v>0.004086027155271199</v>
       </c>
       <c r="Q226">
-        <v>387899.0086404945</v>
+        <v>322545.7309445951</v>
       </c>
       <c r="R226">
         <v>0</v>
       </c>
       <c r="S226">
-        <v>0.008261025801070215</v>
+        <v>0.01717301762833241</v>
       </c>
       <c r="T226">
-        <v>3252570.776012552</v>
+        <v>2704202.985449439</v>
       </c>
       <c r="U226">
         <v>0</v>
       </c>
       <c r="V226">
-        <v>0.001516096853252032</v>
+        <v>0.009315932039059782</v>
       </c>
     </row>
     <row r="227" spans="1:22">
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="Q227">
-        <v>5166206.991564098</v>
+        <v>2583103.495782049</v>
       </c>
       <c r="R227">
         <v>51662.06991564098</v>
@@ -13722,13 +13722,13 @@
         <v>0.1375298992144839</v>
       </c>
       <c r="T227">
-        <v>5166206.991564098</v>
+        <v>2583103.495782049</v>
       </c>
       <c r="U227">
         <v>51662.06991564098</v>
       </c>
       <c r="V227">
-        <v>0.002414106219140601</v>
+        <v>0.008898746412915401</v>
       </c>
     </row>
     <row r="228" spans="1:22">
@@ -13742,40 +13742,40 @@
         <v>0.0204399744692</v>
       </c>
       <c r="K228">
-        <v>2351683.244247597</v>
+        <v>1955355.772503057</v>
       </c>
       <c r="L228">
         <v>0</v>
       </c>
       <c r="M228">
-        <v>0.0009878360092067347</v>
+        <v>0.0102669590367535</v>
       </c>
       <c r="N228">
-        <v>512988.5231244599</v>
+        <v>426301.4820017872</v>
       </c>
       <c r="O228">
         <v>0</v>
       </c>
       <c r="P228">
-        <v>0.00157341046133748</v>
+        <v>0.004086027155271199</v>
       </c>
       <c r="Q228">
-        <v>387899.0086404945</v>
+        <v>322545.7309445951</v>
       </c>
       <c r="R228">
         <v>0</v>
       </c>
       <c r="S228">
-        <v>0.008261025801070215</v>
+        <v>0.01717301762833241</v>
       </c>
       <c r="T228">
-        <v>3252570.776012552</v>
+        <v>2704202.985449439</v>
       </c>
       <c r="U228">
         <v>0</v>
       </c>
       <c r="V228">
-        <v>0.001516096853252032</v>
+        <v>0.009315932039059782</v>
       </c>
     </row>
     <row r="229" spans="1:22">
@@ -13878,40 +13878,40 @@
         <v>0.537320566688</v>
       </c>
       <c r="K230">
-        <v>21194140.05945328</v>
+        <v>17598553.21874146</v>
       </c>
       <c r="L230">
         <v>0</v>
       </c>
       <c r="M230">
-        <v>0.008902701835423988</v>
+        <v>0.09240447571934766</v>
       </c>
       <c r="N230">
-        <v>4812611.527554546</v>
+        <v>4010883.475142613</v>
       </c>
       <c r="O230">
         <v>0</v>
       </c>
       <c r="P230">
-        <v>0.01476097998779307</v>
+        <v>0.03844363552081794</v>
       </c>
       <c r="Q230">
-        <v>3682381.916224577</v>
+        <v>3060391.448006335</v>
       </c>
       <c r="R230">
         <v>0</v>
       </c>
       <c r="S230">
-        <v>0.07842312391037626</v>
+        <v>0.1629417203331031</v>
       </c>
       <c r="T230">
-        <v>29689133.5032324</v>
+        <v>24669828.14189041</v>
       </c>
       <c r="U230">
         <v>0</v>
       </c>
       <c r="V230">
-        <v>0.01383877707196629</v>
+        <v>0.08498712693601253</v>
       </c>
     </row>
     <row r="231" spans="1:22">
@@ -13946,7 +13946,7 @@
         <v>4.35595396487</v>
       </c>
       <c r="K231">
-        <v>644405308.4689769</v>
+        <v>64440530.84689768</v>
       </c>
       <c r="L231">
         <v>644405.3084689769</v>
@@ -13955,7 +13955,7 @@
         <v>0.3383569884394091</v>
       </c>
       <c r="N231">
-        <v>71600000</v>
+        <v>28640000</v>
       </c>
       <c r="O231">
         <v>143200</v>
@@ -13964,22 +13964,22 @@
         <v>0.2745095259285929</v>
       </c>
       <c r="Q231">
-        <v>16525529.08118789</v>
+        <v>8262764.540593946</v>
       </c>
       <c r="R231">
         <v>165255.2908118789</v>
       </c>
       <c r="S231">
-        <v>0.4399270785535647</v>
+        <v>0.4399270785535646</v>
       </c>
       <c r="T231">
-        <v>732530837.5501647</v>
+        <v>101343295.3874916</v>
       </c>
       <c r="U231">
         <v>952860.5992808559</v>
       </c>
       <c r="V231">
-        <v>0.3415602400267745</v>
+        <v>0.3491258820155921</v>
       </c>
     </row>
     <row r="232" spans="1:22">
@@ -14150,40 +14150,40 @@
         <v>1.28272871879</v>
       </c>
       <c r="K234">
-        <v>21194140.05945328</v>
+        <v>17598553.21874146</v>
       </c>
       <c r="L234">
         <v>0</v>
       </c>
       <c r="M234">
-        <v>0.008902701835423988</v>
+        <v>0.09240447571934766</v>
       </c>
       <c r="N234">
-        <v>4812611.527554546</v>
+        <v>4010883.475142613</v>
       </c>
       <c r="O234">
         <v>0</v>
       </c>
       <c r="P234">
-        <v>0.01476097998779307</v>
+        <v>0.03844363552081794</v>
       </c>
       <c r="Q234">
-        <v>3682381.916224577</v>
+        <v>3060391.448006335</v>
       </c>
       <c r="R234">
         <v>0</v>
       </c>
       <c r="S234">
-        <v>0.07842312391037626</v>
+        <v>0.1629417203331031</v>
       </c>
       <c r="T234">
-        <v>29689133.5032324</v>
+        <v>24669828.14189041</v>
       </c>
       <c r="U234">
         <v>0</v>
       </c>
       <c r="V234">
-        <v>0.01383877707196629</v>
+        <v>0.08498712693601253</v>
       </c>
     </row>
     <row r="235" spans="1:22">
@@ -14218,16 +14218,16 @@
         <v>0.145489306383</v>
       </c>
       <c r="K235">
-        <v>1326790753.489947</v>
+        <v>132679075.3489947</v>
       </c>
       <c r="L235">
         <v>1326790.753489947</v>
       </c>
       <c r="M235">
-        <v>0.696656153728326</v>
+        <v>0.6966561537283259</v>
       </c>
       <c r="N235">
-        <v>199451585.5264471</v>
+        <v>79780634.21057886</v>
       </c>
       <c r="O235">
         <v>398903.1710528943</v>
@@ -14236,22 +14236,22 @@
         <v>0.7646838015163576</v>
       </c>
       <c r="Q235">
-        <v>27001948.7635911</v>
+        <v>13500974.38179555</v>
       </c>
       <c r="R235">
         <v>270019.487635911</v>
       </c>
       <c r="S235">
-        <v>0.7188204611459125</v>
+        <v>0.7188204611459124</v>
       </c>
       <c r="T235">
-        <v>1553244287.779985</v>
+        <v>225960683.9413691</v>
       </c>
       <c r="U235">
         <v>1995713.412178752</v>
       </c>
       <c r="V235">
-        <v>0.7242348784885865</v>
+        <v>0.7784306083618218</v>
       </c>
     </row>
     <row r="236" spans="1:22">
@@ -14286,7 +14286,7 @@
         <v>11.6310675081</v>
       </c>
       <c r="K236">
-        <v>545169807.8094573</v>
+        <v>54516980.78094574</v>
       </c>
       <c r="L236">
         <v>545169.8078094574</v>
@@ -14295,16 +14295,16 @@
         <v>0.2862515437632834</v>
       </c>
       <c r="N236">
-        <v>99611615.65475363</v>
+        <v>39844646.26190145</v>
       </c>
       <c r="O236">
         <v>199223.2313095073</v>
       </c>
       <c r="P236">
-        <v>0.3819041534967546</v>
+        <v>0.3819041534967544</v>
       </c>
       <c r="Q236">
-        <v>12401643.20564739</v>
+        <v>6200821.602823696</v>
       </c>
       <c r="R236">
         <v>124016.4320564739</v>
@@ -14313,13 +14313,13 @@
         <v>0.3301448708794953</v>
       </c>
       <c r="T236">
-        <v>657183066.6698583</v>
+        <v>100562448.6456709</v>
       </c>
       <c r="U236">
         <v>868409.4711754386</v>
       </c>
       <c r="V236">
-        <v>0.3064290975482503</v>
+        <v>0.3464358786323903</v>
       </c>
     </row>
     <row r="237" spans="1:22">
@@ -14401,40 +14401,40 @@
         <v>0.0553591512085</v>
       </c>
       <c r="K238">
-        <v>17843134.64944401</v>
+        <v>14988878.11805707</v>
       </c>
       <c r="L238">
         <v>0</v>
       </c>
       <c r="M238">
-        <v>0.00749509567964138</v>
+        <v>0.07870189139441745</v>
       </c>
       <c r="N238">
-        <v>9085421.609767314</v>
+        <v>7615784.538145537</v>
       </c>
       <c r="O238">
         <v>0</v>
       </c>
       <c r="P238">
-        <v>0.02786631037942591</v>
+        <v>0.07299599871301113</v>
       </c>
       <c r="Q238">
-        <v>4080318.632689488</v>
+        <v>3426619.704508869</v>
       </c>
       <c r="R238">
         <v>0</v>
       </c>
       <c r="S238">
-        <v>0.08689792123824601</v>
+        <v>0.1824404881093593</v>
       </c>
       <c r="T238">
-        <v>31008874.89190082</v>
+        <v>26031282.36071148</v>
       </c>
       <c r="U238">
         <v>0</v>
       </c>
       <c r="V238">
-        <v>0.0144539384025737</v>
+        <v>0.0896773129335405</v>
       </c>
     </row>
     <row r="239" spans="1:22">
@@ -14469,40 +14469,40 @@
         <v>6.614588404709999</v>
       </c>
       <c r="K239">
-        <v>1866252.519719191</v>
+        <v>1627746.165666224</v>
       </c>
       <c r="L239">
         <v>0</v>
       </c>
       <c r="M239">
-        <v>0.0007839284673056594</v>
+        <v>0.008546783884619935</v>
       </c>
       <c r="N239">
-        <v>643010.1928945502</v>
+        <v>561111.0220356183</v>
       </c>
       <c r="O239">
         <v>0</v>
       </c>
       <c r="P239">
-        <v>0.001972205846019397</v>
+        <v>0.005378153654060957</v>
       </c>
       <c r="Q239">
-        <v>433899.1920267492</v>
+        <v>377475.1484257091</v>
       </c>
       <c r="R239">
         <v>0</v>
       </c>
       <c r="S239">
-        <v>0.009240684664184259</v>
+        <v>0.02009757611482882</v>
       </c>
       <c r="T239">
-        <v>2943161.904640491</v>
+        <v>2566332.336127551</v>
       </c>
       <c r="U239">
         <v>0</v>
       </c>
       <c r="V239">
-        <v>0.001371874375538411</v>
+        <v>0.008840970060918822</v>
       </c>
     </row>
     <row r="240" spans="1:22">
@@ -14537,40 +14537,40 @@
         <v>1.33598533711</v>
       </c>
       <c r="K240">
-        <v>21194140.05945328</v>
+        <v>17598553.21874146</v>
       </c>
       <c r="L240">
         <v>0</v>
       </c>
       <c r="M240">
-        <v>0.008902701835423988</v>
+        <v>0.09240447571934766</v>
       </c>
       <c r="N240">
-        <v>4812611.527554546</v>
+        <v>4010883.475142613</v>
       </c>
       <c r="O240">
         <v>0</v>
       </c>
       <c r="P240">
-        <v>0.01476097998779307</v>
+        <v>0.03844363552081794</v>
       </c>
       <c r="Q240">
-        <v>3982889.417863471</v>
+        <v>3311707.253159873</v>
       </c>
       <c r="R240">
         <v>0</v>
       </c>
       <c r="S240">
-        <v>0.08482298616615953</v>
+        <v>0.1763223059001203</v>
       </c>
       <c r="T240">
-        <v>29989641.00487129</v>
+        <v>24921143.94704395</v>
       </c>
       <c r="U240">
         <v>0</v>
       </c>
       <c r="V240">
-        <v>0.013978850419785</v>
+        <v>0.08585290549396454</v>
       </c>
     </row>
     <row r="241" spans="1:22">
@@ -14670,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="Q242">
-        <v>4194752.585642477</v>
+        <v>2097376.292821238</v>
       </c>
       <c r="R242">
         <v>41947.52585642476</v>
@@ -14679,13 +14679,13 @@
         <v>0.1116687545185728</v>
       </c>
       <c r="T242">
-        <v>4194752.585642477</v>
+        <v>2097376.292821238</v>
       </c>
       <c r="U242">
         <v>41947.52585642476</v>
       </c>
       <c r="V242">
-        <v>0.001960157291663171</v>
+        <v>0.007225424684978083</v>
       </c>
     </row>
     <row r="243" spans="1:22">
@@ -14720,40 +14720,40 @@
         <v>2.62745841755</v>
       </c>
       <c r="K243">
-        <v>212002.4392290252</v>
+        <v>162425.9846239537</v>
       </c>
       <c r="L243">
         <v>0</v>
       </c>
       <c r="M243">
-        <v>8.905265793016998e-05</v>
+        <v>0.0008528478316269572</v>
       </c>
       <c r="N243">
-        <v>34762.04146472709</v>
+        <v>25979.97088239131</v>
       </c>
       <c r="O243">
         <v>0</v>
       </c>
       <c r="P243">
-        <v>0.0001066202404781265</v>
+        <v>0.0002490135995308619</v>
       </c>
       <c r="Q243">
-        <v>42437.85550856369</v>
+        <v>32485.27205365964</v>
       </c>
       <c r="R243">
         <v>0</v>
       </c>
       <c r="S243">
-        <v>0.0009037925116824743</v>
+        <v>0.001729584663870497</v>
       </c>
       <c r="T243">
-        <v>289202.336202316</v>
+        <v>220891.2275600046</v>
       </c>
       <c r="U243">
         <v>0</v>
       </c>
       <c r="V243">
-        <v>0.0001348037543419702</v>
+        <v>0.0007609664196977742</v>
       </c>
     </row>
     <row r="244" spans="1:22">
@@ -14788,40 +14788,40 @@
         <v>1.92960730162</v>
       </c>
       <c r="K244">
-        <v>1359484.910431646</v>
+        <v>1138414.922010761</v>
       </c>
       <c r="L244">
         <v>0</v>
       </c>
       <c r="M244">
-        <v>0.0005710582629622974</v>
+        <v>0.005977459209968471</v>
       </c>
       <c r="N244">
-        <v>438748.2683993767</v>
+        <v>368257.4579990586</v>
       </c>
       <c r="O244">
         <v>0</v>
       </c>
       <c r="P244">
-        <v>0.001345704795087195</v>
+        <v>0.003529685063372566</v>
       </c>
       <c r="Q244">
-        <v>230913.4922051129</v>
+        <v>194663.6797201724</v>
       </c>
       <c r="R244">
         <v>0</v>
       </c>
       <c r="S244">
-        <v>0.004917729291465178</v>
+        <v>0.01036430646172406</v>
       </c>
       <c r="T244">
-        <v>2029146.671036136</v>
+        <v>1701336.059729992</v>
       </c>
       <c r="U244">
         <v>0</v>
       </c>
       <c r="V244">
-        <v>0.0009458311884964343</v>
+        <v>0.005861073001297706</v>
       </c>
     </row>
     <row r="245" spans="1:22">
@@ -14856,40 +14856,40 @@
         <v>0.282700721104</v>
       </c>
       <c r="K245">
-        <v>7766267.155157323</v>
+        <v>6572506.97308486</v>
       </c>
       <c r="L245">
         <v>0</v>
       </c>
       <c r="M245">
-        <v>0.003262258372486932</v>
+        <v>0.03451016986799188</v>
       </c>
       <c r="N245">
-        <v>1604594.785304383</v>
+        <v>1354859.375724386</v>
       </c>
       <c r="O245">
         <v>0</v>
       </c>
       <c r="P245">
-        <v>0.004921525741021213</v>
+        <v>0.01298609654085232</v>
       </c>
       <c r="Q245">
-        <v>1203504.813168703</v>
+        <v>1018583.673924382</v>
       </c>
       <c r="R245">
         <v>0</v>
       </c>
       <c r="S245">
-        <v>0.02563085775378528</v>
+        <v>0.0542315514051547</v>
       </c>
       <c r="T245">
-        <v>10574366.75363041</v>
+        <v>8945950.022733629</v>
       </c>
       <c r="U245">
         <v>0</v>
       </c>
       <c r="V245">
-        <v>0.004928951670643092</v>
+        <v>0.03081864153136444</v>
       </c>
     </row>
     <row r="246" spans="1:22">
@@ -14992,40 +14992,40 @@
         <v>1.27296796276</v>
       </c>
       <c r="K247">
-        <v>3982175.739441924</v>
+        <v>3360681.952753323</v>
       </c>
       <c r="L247">
         <v>0</v>
       </c>
       <c r="M247">
-        <v>0.001672732329080636</v>
+        <v>0.01764588543408981</v>
       </c>
       <c r="N247">
-        <v>1038929.579488157</v>
+        <v>873652.6912917661</v>
       </c>
       <c r="O247">
         <v>0</v>
       </c>
       <c r="P247">
-        <v>0.003186548227245657</v>
+        <v>0.008373812364271718</v>
       </c>
       <c r="Q247">
-        <v>620394.4514170156</v>
+        <v>524433.5439611434</v>
       </c>
       <c r="R247">
         <v>0</v>
       </c>
       <c r="S247">
-        <v>0.01321244565166372</v>
+        <v>0.02792195224211654</v>
       </c>
       <c r="T247">
-        <v>5641499.770347096</v>
+        <v>4758768.188006232</v>
       </c>
       <c r="U247">
         <v>0</v>
       </c>
       <c r="V247">
-        <v>0.002629630725493638</v>
+        <v>0.01639387326604023</v>
       </c>
     </row>
     <row r="248" spans="1:22">
@@ -15060,40 +15060,40 @@
         <v>0.368868691256</v>
       </c>
       <c r="K248">
-        <v>8077552.950501175</v>
+        <v>6764033.366367446</v>
       </c>
       <c r="L248">
         <v>0</v>
       </c>
       <c r="M248">
-        <v>0.003393015488075259</v>
+        <v>0.0355158148058296</v>
       </c>
       <c r="N248">
-        <v>2947540.164464091</v>
+        <v>2475045.435651542</v>
       </c>
       <c r="O248">
         <v>0</v>
       </c>
       <c r="P248">
-        <v>0.009040534672653906</v>
+        <v>0.02372288928744526</v>
       </c>
       <c r="Q248">
-        <v>1351004.710480914</v>
+        <v>1132140.819939225</v>
       </c>
       <c r="R248">
         <v>0</v>
       </c>
       <c r="S248">
-        <v>0.02877214048513842</v>
+        <v>0.06027757428887099</v>
       </c>
       <c r="T248">
-        <v>12376097.82544618</v>
+        <v>10371219.62195821</v>
       </c>
       <c r="U248">
         <v>0</v>
       </c>
       <c r="V248">
-        <v>0.005768779301307311</v>
+        <v>0.0357286703994479</v>
       </c>
     </row>
     <row r="249" spans="1:22">
@@ -15128,40 +15128,40 @@
         <v>0.7762476821500001</v>
       </c>
       <c r="K249">
-        <v>37512136.07817712</v>
+        <v>31118570.48873662</v>
       </c>
       <c r="L249">
         <v>0</v>
       </c>
       <c r="M249">
-        <v>0.01575715559947454</v>
+        <v>0.1633938401302803</v>
       </c>
       <c r="N249">
-        <v>12013035.88723476</v>
+        <v>9995801.44397665</v>
       </c>
       <c r="O249">
         <v>0</v>
       </c>
       <c r="P249">
-        <v>0.03684572945662556</v>
+        <v>0.09580805571446838</v>
       </c>
       <c r="Q249">
-        <v>6105131.363809917</v>
+        <v>5060591.24124716</v>
       </c>
       <c r="R249">
         <v>0</v>
       </c>
       <c r="S249">
-        <v>0.1300200479813539</v>
+        <v>0.2694365922661993</v>
       </c>
       <c r="T249">
-        <v>55630303.3292218</v>
+        <v>46174963.17396043</v>
       </c>
       <c r="U249">
         <v>0</v>
       </c>
       <c r="V249">
-        <v>0.02593054344732381</v>
+        <v>0.1590719413998467</v>
       </c>
     </row>
     <row r="250" spans="1:22">
@@ -15196,7 +15196,7 @@
         <v>9.269298880180001</v>
       </c>
       <c r="K250">
-        <v>1159445148.444606</v>
+        <v>115944514.8444605</v>
       </c>
       <c r="L250">
         <v>1159445.148444606</v>
@@ -15205,7 +15205,7 @@
         <v>0.608788232394406</v>
       </c>
       <c r="N250">
-        <v>160250000.0000001</v>
+        <v>64100000.00000002</v>
       </c>
       <c r="O250">
         <v>320500.0000000001</v>
@@ -15214,7 +15214,7 @@
         <v>0.6143875912019138</v>
       </c>
       <c r="Q250">
-        <v>21244172.29117977</v>
+        <v>10622086.14558988</v>
       </c>
       <c r="R250">
         <v>212441.7229117977</v>
@@ -15223,13 +15223,13 @@
         <v>0.5655423560983803</v>
       </c>
       <c r="T250">
-        <v>1340939320.735785</v>
+        <v>190666600.9900505</v>
       </c>
       <c r="U250">
         <v>1692386.871356403</v>
       </c>
       <c r="V250">
-        <v>0.6252393814670769</v>
+        <v>0.6568431092263689</v>
       </c>
     </row>
   </sheetData>
